--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723886774463153</v>
+        <v>3.723886774463097</v>
       </c>
       <c r="C2">
-        <v>1.284037969219582</v>
+        <v>1.28403796921981</v>
       </c>
       <c r="D2">
-        <v>0.2094354044824769</v>
+        <v>0.2094354044824911</v>
       </c>
       <c r="E2">
         <v>0.2378844203423611</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.750598250573375</v>
+        <v>2.75059825057339</v>
       </c>
       <c r="H2">
         <v>1.81126556688146</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5713962333257712</v>
+        <v>0.5713962333257783</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.195769728363757</v>
+        <v>3.195769728363871</v>
       </c>
       <c r="C3">
-        <v>1.09949997845888</v>
+        <v>1.099499978459164</v>
       </c>
       <c r="D3">
-        <v>0.1797341032005875</v>
+        <v>0.1797341032006585</v>
       </c>
       <c r="E3">
-        <v>0.2036014856656934</v>
+        <v>0.2036014856657289</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4887263804177877</v>
+        <v>0.4887263804177522</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.878421539983549</v>
+        <v>2.878421539983606</v>
       </c>
       <c r="C4">
-        <v>0.988885318247128</v>
+        <v>0.9888853182473838</v>
       </c>
       <c r="D4">
-        <v>0.1619683473305287</v>
+        <v>0.1619683473305429</v>
       </c>
       <c r="E4">
-        <v>0.1831799758963086</v>
+        <v>0.1831799758963157</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.218386157597493</v>
+        <v>2.218386157597521</v>
       </c>
       <c r="H4">
         <v>1.494177374209428</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4393498420799347</v>
+        <v>0.4393498420799418</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>2.750552759407697</v>
       </c>
       <c r="C5">
-        <v>0.9443724028363363</v>
+        <v>0.9443724028365921</v>
       </c>
       <c r="D5">
-        <v>0.1548288753652827</v>
+        <v>0.1548288753652542</v>
       </c>
       <c r="E5">
-        <v>0.1749914061993465</v>
+        <v>0.1749914061993323</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.139532981617791</v>
+        <v>2.139532981617776</v>
       </c>
       <c r="H5">
-        <v>1.447439271795588</v>
+        <v>1.447439271795602</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4195205623649514</v>
+        <v>0.4195205623649301</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>2.729400280986454</v>
       </c>
       <c r="C6">
-        <v>0.9370120341678501</v>
+        <v>0.937012034167708</v>
       </c>
       <c r="D6">
-        <v>0.1536489314382408</v>
+        <v>0.1536489314383829</v>
       </c>
       <c r="E6">
-        <v>0.1736390900888196</v>
+        <v>0.1736390900888409</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.126534286178384</v>
+        <v>2.126534286178355</v>
       </c>
       <c r="H6">
-        <v>1.439741569737222</v>
+        <v>1.439741569737208</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4162440614436065</v>
+        <v>0.4162440614436207</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876691526880506</v>
+        <v>2.87669152688045</v>
       </c>
       <c r="C7">
-        <v>0.9882828603250857</v>
+        <v>0.9882828603246026</v>
       </c>
       <c r="D7">
-        <v>0.1618716786845908</v>
+        <v>0.1618716786843919</v>
       </c>
       <c r="E7">
-        <v>0.1830690324394695</v>
+        <v>0.1830690324395121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.217316206157093</v>
+        <v>2.217316206157108</v>
       </c>
       <c r="H7">
         <v>1.493542717783214</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4390813037562182</v>
+        <v>0.4390813037562324</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.540172527121285</v>
+        <v>3.540172527121456</v>
       </c>
       <c r="C8">
-        <v>1.219777554092047</v>
+        <v>1.219777554092332</v>
       </c>
       <c r="D8">
-        <v>0.1990849878244489</v>
+        <v>0.1990849878244632</v>
       </c>
       <c r="E8">
         <v>0.2259174343756243</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.633454884005843</v>
+        <v>2.633454884005829</v>
       </c>
       <c r="H8">
-        <v>1.741253174283287</v>
+        <v>1.741253174283301</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5425688400672826</v>
+        <v>0.5425688400672541</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.911239985643533</v>
+        <v>4.91123998564359</v>
       </c>
       <c r="C9">
         <v>1.701097434546</v>
       </c>
       <c r="D9">
-        <v>0.2767522226354231</v>
+        <v>0.2767522226351957</v>
       </c>
       <c r="E9">
-        <v>0.3162291924221208</v>
+        <v>0.3162291924221705</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.52520423443147</v>
+        <v>3.525204234431499</v>
       </c>
       <c r="H9">
-        <v>2.276699929103103</v>
+        <v>2.276699929103088</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7594231060923136</v>
+        <v>0.759423106092278</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>5.986497236526986</v>
       </c>
       <c r="C10">
-        <v>2.081469746830578</v>
+        <v>2.081469746831146</v>
       </c>
       <c r="D10">
-        <v>0.3382658541120094</v>
+        <v>0.3382658541119525</v>
       </c>
       <c r="E10">
-        <v>0.3885975806019815</v>
+        <v>0.3885975806020525</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.249847904188357</v>
+        <v>4.249847904188414</v>
       </c>
       <c r="H10">
-        <v>2.715251828789334</v>
+        <v>2.715251828789363</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.497618392328434</v>
+        <v>6.497618392328377</v>
       </c>
       <c r="C11">
-        <v>2.263203780775314</v>
+        <v>2.263203780775655</v>
       </c>
       <c r="D11">
-        <v>0.3676678299675871</v>
+        <v>0.3676678299674165</v>
       </c>
       <c r="E11">
-        <v>0.4234531148715064</v>
+        <v>0.4234531148715419</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.60122970091561</v>
+        <v>4.601229700915496</v>
       </c>
       <c r="H11">
-        <v>2.928792275049133</v>
+        <v>2.928792275049119</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.015085574033847</v>
+        <v>1.015085574033833</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>6.695091796881798</v>
       </c>
       <c r="C12">
-        <v>2.33358025702114</v>
+        <v>2.333580257021367</v>
       </c>
       <c r="D12">
-        <v>0.3790533066098334</v>
+        <v>0.3790533066096629</v>
       </c>
       <c r="E12">
-        <v>0.436997153384425</v>
+        <v>0.4369971533845174</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.738118340644661</v>
+        <v>4.738118340644576</v>
       </c>
       <c r="H12">
         <v>3.012121308885554</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.047258670521543</v>
+        <v>1.047258670521572</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>6.652373917348029</v>
       </c>
       <c r="C13">
-        <v>2.318348506859707</v>
+        <v>2.318348506859763</v>
       </c>
       <c r="D13">
-        <v>0.3765891816726565</v>
+        <v>0.3765891816724434</v>
       </c>
       <c r="E13">
-        <v>0.4340636292336129</v>
+        <v>0.4340636292336413</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.708453800945506</v>
+        <v>4.708453800945477</v>
       </c>
       <c r="H13">
         <v>2.99405705077595</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.040292417595836</v>
+        <v>1.040292417595779</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.513781055197342</v>
+        <v>6.513781055197398</v>
       </c>
       <c r="C14">
-        <v>2.268960471816683</v>
+        <v>2.268960471816513</v>
       </c>
       <c r="D14">
-        <v>0.3685991684516665</v>
+        <v>0.3685991684518086</v>
       </c>
       <c r="E14">
-        <v>0.4245600395945033</v>
+        <v>0.4245600395945459</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.612410314153891</v>
+        <v>4.612410314153948</v>
       </c>
       <c r="H14">
-        <v>2.935595471402436</v>
+        <v>2.935595471402451</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.01771597384915</v>
+        <v>1.017715973849178</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.429425295225315</v>
+        <v>6.429425295225144</v>
       </c>
       <c r="C15">
-        <v>2.238922013540048</v>
+        <v>2.238922013539707</v>
       </c>
       <c r="D15">
-        <v>0.3637394049932254</v>
+        <v>0.3637394049932823</v>
       </c>
       <c r="E15">
-        <v>0.4187859865195094</v>
+        <v>0.4187859865194667</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.554102898543277</v>
+        <v>4.554102898543192</v>
       </c>
       <c r="H15">
-        <v>2.900122135007834</v>
+        <v>2.900122135007777</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.003993114936108</v>
+        <v>1.003993114936094</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>5.953598037659162</v>
       </c>
       <c r="C16">
-        <v>2.069792780149896</v>
+        <v>2.069792780150181</v>
       </c>
       <c r="D16">
-        <v>0.336376758111598</v>
+        <v>0.3363767581117543</v>
       </c>
       <c r="E16">
-        <v>0.3863640000428745</v>
+        <v>0.3863640000428958</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.227378328002033</v>
+        <v>4.227378328002061</v>
       </c>
       <c r="H16">
         <v>2.701615045379</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9268487335230873</v>
+        <v>0.9268487335230446</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.667816003510836</v>
+        <v>5.667816003510893</v>
       </c>
       <c r="C17">
         <v>1.968463822964281</v>
       </c>
       <c r="D17">
-        <v>0.319984904023201</v>
+        <v>0.3199849040233289</v>
       </c>
       <c r="E17">
-        <v>0.3670127799872489</v>
+        <v>0.3670127799873129</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.03296502515127</v>
+        <v>4.032965025151384</v>
       </c>
       <c r="H17">
         <v>2.583722667700357</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8807306492705891</v>
+        <v>0.8807306492705607</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>5.505456698109015</v>
       </c>
       <c r="C18">
-        <v>1.910979262429123</v>
+        <v>1.910979262428839</v>
       </c>
       <c r="D18">
-        <v>0.3106869570431314</v>
+        <v>0.3106869570428756</v>
       </c>
       <c r="E18">
-        <v>0.3560598327018312</v>
+        <v>0.3560598327018383</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.923139961314604</v>
+        <v>3.923139961314632</v>
       </c>
       <c r="H18">
-        <v>2.517204057378237</v>
+        <v>2.517204057378279</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8546020377141161</v>
+        <v>0.8546020377141019</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>5.450810061366269</v>
       </c>
       <c r="C19">
-        <v>1.891644608025445</v>
+        <v>1.89164460802516</v>
       </c>
       <c r="D19">
-        <v>0.3075599066634425</v>
+        <v>0.3075599066630161</v>
       </c>
       <c r="E19">
-        <v>0.3523800119507428</v>
+        <v>0.3523800119506717</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.886278929699984</v>
+        <v>3.886278929699955</v>
       </c>
       <c r="H19">
         <v>2.494891441395978</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8458195016833656</v>
+        <v>0.8458195016833514</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>5.698024444515738</v>
       </c>
       <c r="C20">
-        <v>1.97916594930058</v>
+        <v>1.979165949300466</v>
       </c>
       <c r="D20">
-        <v>0.3217160556591381</v>
+        <v>0.3217160556586833</v>
       </c>
       <c r="E20">
-        <v>0.3690539566457431</v>
+        <v>0.3690539566458071</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.554375751989539</v>
+        <v>6.554375751989596</v>
       </c>
       <c r="C21">
-        <v>2.283421868417918</v>
+        <v>2.283421868418202</v>
       </c>
       <c r="D21">
-        <v>0.3709387704815725</v>
+        <v>0.3709387704815583</v>
       </c>
       <c r="E21">
-        <v>0.4273415026260778</v>
+        <v>0.4273415026260494</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>4.640510351171713</v>
       </c>
       <c r="H21">
-        <v>2.952696076322269</v>
+        <v>2.952696076322283</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.024324841413616</v>
+        <v>1.024324841413602</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>2.491547142908473</v>
       </c>
       <c r="D22">
-        <v>0.4046052835221303</v>
+        <v>0.4046052835223293</v>
       </c>
       <c r="E22">
-        <v>0.4674896880263688</v>
+        <v>0.4674896880264257</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.046948918906111</v>
+        <v>5.046948918906082</v>
       </c>
       <c r="H22">
         <v>3.200386631040246</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.119599787810913</v>
+        <v>1.119599787810898</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.823794928168468</v>
+        <v>6.82379492816824</v>
       </c>
       <c r="C23">
-        <v>2.379497424076703</v>
+        <v>2.37949742407659</v>
       </c>
       <c r="D23">
-        <v>0.3864813134135119</v>
+        <v>0.3864813134135261</v>
       </c>
       <c r="E23">
-        <v>0.4458476193083101</v>
+        <v>0.4458476193084238</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.827667280644704</v>
+        <v>4.827667280644675</v>
       </c>
       <c r="H23">
         <v>3.066673290858162</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.068268720266801</v>
+        <v>1.068268720266758</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.684361219047787</v>
+        <v>5.684361219047958</v>
       </c>
       <c r="C24">
-        <v>1.974325139291864</v>
+        <v>1.974325139292091</v>
       </c>
       <c r="D24">
-        <v>0.3209330131504515</v>
+        <v>0.3209330131501389</v>
       </c>
       <c r="E24">
-        <v>0.3681306087523737</v>
+        <v>0.3681306087523382</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>4.044182420557888</v>
       </c>
       <c r="H24">
-        <v>2.590520080876061</v>
+        <v>2.590520080876075</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8833962225448744</v>
+        <v>0.8833962225448602</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.530494855912082</v>
+        <v>4.530494855911968</v>
       </c>
       <c r="C25">
-        <v>1.567027036144339</v>
+        <v>1.567027036144395</v>
       </c>
       <c r="D25">
-        <v>0.2550909869029141</v>
+        <v>0.2550909869030278</v>
       </c>
       <c r="E25">
-        <v>0.2909224957067025</v>
+        <v>0.2909224957066883</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.273692835176263</v>
+        <v>3.273692835176291</v>
       </c>
       <c r="H25">
-        <v>2.125147250118047</v>
+        <v>2.12514725011809</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.698811639169584</v>
+        <v>0.6988116391694987</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723886774463097</v>
+        <v>3.723886774463153</v>
       </c>
       <c r="C2">
-        <v>1.28403796921981</v>
+        <v>1.284037969219582</v>
       </c>
       <c r="D2">
-        <v>0.2094354044824911</v>
+        <v>0.2094354044824769</v>
       </c>
       <c r="E2">
         <v>0.2378844203423611</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.75059825057339</v>
+        <v>2.750598250573375</v>
       </c>
       <c r="H2">
         <v>1.81126556688146</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5713962333257783</v>
+        <v>0.5713962333257712</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.195769728363871</v>
+        <v>3.195769728363757</v>
       </c>
       <c r="C3">
-        <v>1.099499978459164</v>
+        <v>1.09949997845888</v>
       </c>
       <c r="D3">
-        <v>0.1797341032006585</v>
+        <v>0.1797341032005875</v>
       </c>
       <c r="E3">
-        <v>0.2036014856657289</v>
+        <v>0.2036014856656934</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4887263804177522</v>
+        <v>0.4887263804177877</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.878421539983606</v>
+        <v>2.878421539983549</v>
       </c>
       <c r="C4">
-        <v>0.9888853182473838</v>
+        <v>0.988885318247128</v>
       </c>
       <c r="D4">
-        <v>0.1619683473305429</v>
+        <v>0.1619683473305287</v>
       </c>
       <c r="E4">
-        <v>0.1831799758963157</v>
+        <v>0.1831799758963086</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.218386157597521</v>
+        <v>2.218386157597493</v>
       </c>
       <c r="H4">
         <v>1.494177374209428</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4393498420799418</v>
+        <v>0.4393498420799347</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>2.750552759407697</v>
       </c>
       <c r="C5">
-        <v>0.9443724028365921</v>
+        <v>0.9443724028363363</v>
       </c>
       <c r="D5">
-        <v>0.1548288753652542</v>
+        <v>0.1548288753652827</v>
       </c>
       <c r="E5">
-        <v>0.1749914061993323</v>
+        <v>0.1749914061993465</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.139532981617776</v>
+        <v>2.139532981617791</v>
       </c>
       <c r="H5">
-        <v>1.447439271795602</v>
+        <v>1.447439271795588</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4195205623649301</v>
+        <v>0.4195205623649514</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>2.729400280986454</v>
       </c>
       <c r="C6">
-        <v>0.937012034167708</v>
+        <v>0.9370120341678501</v>
       </c>
       <c r="D6">
-        <v>0.1536489314383829</v>
+        <v>0.1536489314382408</v>
       </c>
       <c r="E6">
-        <v>0.1736390900888409</v>
+        <v>0.1736390900888196</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.126534286178355</v>
+        <v>2.126534286178384</v>
       </c>
       <c r="H6">
-        <v>1.439741569737208</v>
+        <v>1.439741569737222</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4162440614436207</v>
+        <v>0.4162440614436065</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.87669152688045</v>
+        <v>2.876691526880506</v>
       </c>
       <c r="C7">
-        <v>0.9882828603246026</v>
+        <v>0.9882828603250857</v>
       </c>
       <c r="D7">
-        <v>0.1618716786843919</v>
+        <v>0.1618716786845908</v>
       </c>
       <c r="E7">
-        <v>0.1830690324395121</v>
+        <v>0.1830690324394695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.217316206157108</v>
+        <v>2.217316206157093</v>
       </c>
       <c r="H7">
         <v>1.493542717783214</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4390813037562324</v>
+        <v>0.4390813037562182</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.540172527121456</v>
+        <v>3.540172527121285</v>
       </c>
       <c r="C8">
-        <v>1.219777554092332</v>
+        <v>1.219777554092047</v>
       </c>
       <c r="D8">
-        <v>0.1990849878244632</v>
+        <v>0.1990849878244489</v>
       </c>
       <c r="E8">
         <v>0.2259174343756243</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.633454884005829</v>
+        <v>2.633454884005843</v>
       </c>
       <c r="H8">
-        <v>1.741253174283301</v>
+        <v>1.741253174283287</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5425688400672541</v>
+        <v>0.5425688400672826</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.91123998564359</v>
+        <v>4.911239985643533</v>
       </c>
       <c r="C9">
         <v>1.701097434546</v>
       </c>
       <c r="D9">
-        <v>0.2767522226351957</v>
+        <v>0.2767522226354231</v>
       </c>
       <c r="E9">
-        <v>0.3162291924221705</v>
+        <v>0.3162291924221208</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.525204234431499</v>
+        <v>3.52520423443147</v>
       </c>
       <c r="H9">
-        <v>2.276699929103088</v>
+        <v>2.276699929103103</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.759423106092278</v>
+        <v>0.7594231060923136</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>5.986497236526986</v>
       </c>
       <c r="C10">
-        <v>2.081469746831146</v>
+        <v>2.081469746830578</v>
       </c>
       <c r="D10">
-        <v>0.3382658541119525</v>
+        <v>0.3382658541120094</v>
       </c>
       <c r="E10">
-        <v>0.3885975806020525</v>
+        <v>0.3885975806019815</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.249847904188414</v>
+        <v>4.249847904188357</v>
       </c>
       <c r="H10">
-        <v>2.715251828789363</v>
+        <v>2.715251828789334</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.497618392328377</v>
+        <v>6.497618392328434</v>
       </c>
       <c r="C11">
-        <v>2.263203780775655</v>
+        <v>2.263203780775314</v>
       </c>
       <c r="D11">
-        <v>0.3676678299674165</v>
+        <v>0.3676678299675871</v>
       </c>
       <c r="E11">
-        <v>0.4234531148715419</v>
+        <v>0.4234531148715064</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.601229700915496</v>
+        <v>4.60122970091561</v>
       </c>
       <c r="H11">
-        <v>2.928792275049119</v>
+        <v>2.928792275049133</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.015085574033833</v>
+        <v>1.015085574033847</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>6.695091796881798</v>
       </c>
       <c r="C12">
-        <v>2.333580257021367</v>
+        <v>2.33358025702114</v>
       </c>
       <c r="D12">
-        <v>0.3790533066096629</v>
+        <v>0.3790533066098334</v>
       </c>
       <c r="E12">
-        <v>0.4369971533845174</v>
+        <v>0.436997153384425</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.738118340644576</v>
+        <v>4.738118340644661</v>
       </c>
       <c r="H12">
         <v>3.012121308885554</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.047258670521572</v>
+        <v>1.047258670521543</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>6.652373917348029</v>
       </c>
       <c r="C13">
-        <v>2.318348506859763</v>
+        <v>2.318348506859707</v>
       </c>
       <c r="D13">
-        <v>0.3765891816724434</v>
+        <v>0.3765891816726565</v>
       </c>
       <c r="E13">
-        <v>0.4340636292336413</v>
+        <v>0.4340636292336129</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.708453800945477</v>
+        <v>4.708453800945506</v>
       </c>
       <c r="H13">
         <v>2.99405705077595</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.040292417595779</v>
+        <v>1.040292417595836</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.513781055197398</v>
+        <v>6.513781055197342</v>
       </c>
       <c r="C14">
-        <v>2.268960471816513</v>
+        <v>2.268960471816683</v>
       </c>
       <c r="D14">
-        <v>0.3685991684518086</v>
+        <v>0.3685991684516665</v>
       </c>
       <c r="E14">
-        <v>0.4245600395945459</v>
+        <v>0.4245600395945033</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.612410314153948</v>
+        <v>4.612410314153891</v>
       </c>
       <c r="H14">
-        <v>2.935595471402451</v>
+        <v>2.935595471402436</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.017715973849178</v>
+        <v>1.01771597384915</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.429425295225144</v>
+        <v>6.429425295225315</v>
       </c>
       <c r="C15">
-        <v>2.238922013539707</v>
+        <v>2.238922013540048</v>
       </c>
       <c r="D15">
-        <v>0.3637394049932823</v>
+        <v>0.3637394049932254</v>
       </c>
       <c r="E15">
-        <v>0.4187859865194667</v>
+        <v>0.4187859865195094</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.554102898543192</v>
+        <v>4.554102898543277</v>
       </c>
       <c r="H15">
-        <v>2.900122135007777</v>
+        <v>2.900122135007834</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.003993114936094</v>
+        <v>1.003993114936108</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>5.953598037659162</v>
       </c>
       <c r="C16">
-        <v>2.069792780150181</v>
+        <v>2.069792780149896</v>
       </c>
       <c r="D16">
-        <v>0.3363767581117543</v>
+        <v>0.336376758111598</v>
       </c>
       <c r="E16">
-        <v>0.3863640000428958</v>
+        <v>0.3863640000428745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.227378328002061</v>
+        <v>4.227378328002033</v>
       </c>
       <c r="H16">
         <v>2.701615045379</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9268487335230446</v>
+        <v>0.9268487335230873</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.667816003510893</v>
+        <v>5.667816003510836</v>
       </c>
       <c r="C17">
         <v>1.968463822964281</v>
       </c>
       <c r="D17">
-        <v>0.3199849040233289</v>
+        <v>0.319984904023201</v>
       </c>
       <c r="E17">
-        <v>0.3670127799873129</v>
+        <v>0.3670127799872489</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.032965025151384</v>
+        <v>4.03296502515127</v>
       </c>
       <c r="H17">
         <v>2.583722667700357</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8807306492705607</v>
+        <v>0.8807306492705891</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>5.505456698109015</v>
       </c>
       <c r="C18">
-        <v>1.910979262428839</v>
+        <v>1.910979262429123</v>
       </c>
       <c r="D18">
-        <v>0.3106869570428756</v>
+        <v>0.3106869570431314</v>
       </c>
       <c r="E18">
-        <v>0.3560598327018383</v>
+        <v>0.3560598327018312</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.923139961314632</v>
+        <v>3.923139961314604</v>
       </c>
       <c r="H18">
-        <v>2.517204057378279</v>
+        <v>2.517204057378237</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8546020377141019</v>
+        <v>0.8546020377141161</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>5.450810061366269</v>
       </c>
       <c r="C19">
-        <v>1.89164460802516</v>
+        <v>1.891644608025445</v>
       </c>
       <c r="D19">
-        <v>0.3075599066630161</v>
+        <v>0.3075599066634425</v>
       </c>
       <c r="E19">
-        <v>0.3523800119506717</v>
+        <v>0.3523800119507428</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.886278929699955</v>
+        <v>3.886278929699984</v>
       </c>
       <c r="H19">
         <v>2.494891441395978</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8458195016833514</v>
+        <v>0.8458195016833656</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>5.698024444515738</v>
       </c>
       <c r="C20">
-        <v>1.979165949300466</v>
+        <v>1.97916594930058</v>
       </c>
       <c r="D20">
-        <v>0.3217160556586833</v>
+        <v>0.3217160556591381</v>
       </c>
       <c r="E20">
-        <v>0.3690539566458071</v>
+        <v>0.3690539566457431</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.554375751989596</v>
+        <v>6.554375751989539</v>
       </c>
       <c r="C21">
-        <v>2.283421868418202</v>
+        <v>2.283421868417918</v>
       </c>
       <c r="D21">
-        <v>0.3709387704815583</v>
+        <v>0.3709387704815725</v>
       </c>
       <c r="E21">
-        <v>0.4273415026260494</v>
+        <v>0.4273415026260778</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>4.640510351171713</v>
       </c>
       <c r="H21">
-        <v>2.952696076322283</v>
+        <v>2.952696076322269</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.024324841413602</v>
+        <v>1.024324841413616</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>2.491547142908473</v>
       </c>
       <c r="D22">
-        <v>0.4046052835223293</v>
+        <v>0.4046052835221303</v>
       </c>
       <c r="E22">
-        <v>0.4674896880264257</v>
+        <v>0.4674896880263688</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.046948918906082</v>
+        <v>5.046948918906111</v>
       </c>
       <c r="H22">
         <v>3.200386631040246</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.119599787810898</v>
+        <v>1.119599787810913</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.82379492816824</v>
+        <v>6.823794928168468</v>
       </c>
       <c r="C23">
-        <v>2.37949742407659</v>
+        <v>2.379497424076703</v>
       </c>
       <c r="D23">
-        <v>0.3864813134135261</v>
+        <v>0.3864813134135119</v>
       </c>
       <c r="E23">
-        <v>0.4458476193084238</v>
+        <v>0.4458476193083101</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.827667280644675</v>
+        <v>4.827667280644704</v>
       </c>
       <c r="H23">
         <v>3.066673290858162</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.068268720266758</v>
+        <v>1.068268720266801</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.684361219047958</v>
+        <v>5.684361219047787</v>
       </c>
       <c r="C24">
-        <v>1.974325139292091</v>
+        <v>1.974325139291864</v>
       </c>
       <c r="D24">
-        <v>0.3209330131501389</v>
+        <v>0.3209330131504515</v>
       </c>
       <c r="E24">
-        <v>0.3681306087523382</v>
+        <v>0.3681306087523737</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>4.044182420557888</v>
       </c>
       <c r="H24">
-        <v>2.590520080876075</v>
+        <v>2.590520080876061</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8833962225448602</v>
+        <v>0.8833962225448744</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.530494855911968</v>
+        <v>4.530494855912082</v>
       </c>
       <c r="C25">
-        <v>1.567027036144395</v>
+        <v>1.567027036144339</v>
       </c>
       <c r="D25">
-        <v>0.2550909869030278</v>
+        <v>0.2550909869029141</v>
       </c>
       <c r="E25">
-        <v>0.2909224957066883</v>
+        <v>0.2909224957067025</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.273692835176291</v>
+        <v>3.273692835176263</v>
       </c>
       <c r="H25">
-        <v>2.12514725011809</v>
+        <v>2.125147250118047</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6988116391694987</v>
+        <v>0.698811639169584</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723886774463153</v>
+        <v>3.723433152573818</v>
       </c>
       <c r="C2">
-        <v>1.284037969219582</v>
+        <v>1.282719306462411</v>
       </c>
       <c r="D2">
-        <v>0.2094354044824769</v>
+        <v>0.2094210638748422</v>
       </c>
       <c r="E2">
-        <v>0.2378844203423611</v>
+        <v>0.237943472242101</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.750598250573375</v>
+        <v>0.8980434934379389</v>
       </c>
       <c r="H2">
-        <v>1.81126556688146</v>
+        <v>1.847547833333365</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.805863301859091</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5713962333257712</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5712271889767209</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.195769728363757</v>
+        <v>3.195476254340463</v>
       </c>
       <c r="C3">
-        <v>1.09949997845888</v>
+        <v>1.098396924903909</v>
       </c>
       <c r="D3">
-        <v>0.1797341032005875</v>
+        <v>0.179724970022292</v>
       </c>
       <c r="E3">
-        <v>0.2036014856656934</v>
+        <v>0.2036555521301153</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.416032524052298</v>
+        <v>0.7830510334491265</v>
       </c>
       <c r="H3">
-        <v>1.611621960165877</v>
+        <v>1.629251350400096</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.606905695735108</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4887263804177877</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4885902496490644</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.878421539983549</v>
+        <v>2.878209654003058</v>
       </c>
       <c r="C4">
-        <v>0.988885318247128</v>
+        <v>0.9879067847207637</v>
       </c>
       <c r="D4">
-        <v>0.1619683473305287</v>
+        <v>0.1619618147417867</v>
       </c>
       <c r="E4">
-        <v>0.1831799758963086</v>
+        <v>0.1832306034126461</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.218386157597493</v>
+        <v>0.7150044021272635</v>
       </c>
       <c r="H4">
-        <v>1.494177374209428</v>
+        <v>1.50041106118374</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.489870091640825</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4393498420799347</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4392318209159427</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750552759407697</v>
+        <v>2.750370589101067</v>
       </c>
       <c r="C5">
-        <v>0.9443724028363363</v>
+        <v>0.9434429731026057</v>
       </c>
       <c r="D5">
-        <v>0.1548288753652827</v>
+        <v>0.1548232811285573</v>
       </c>
       <c r="E5">
-        <v>0.1749914061993465</v>
+        <v>0.1750405604771004</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.139532981617791</v>
+        <v>0.6878283745552949</v>
       </c>
       <c r="H5">
-        <v>1.447439271795588</v>
+        <v>1.449038320369027</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.443296149350573</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4195205623649514</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4194094910251991</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729400280986454</v>
+        <v>2.729222849408814</v>
       </c>
       <c r="C6">
-        <v>0.9370120341678501</v>
+        <v>0.9360906680109053</v>
       </c>
       <c r="D6">
-        <v>0.1536489314382408</v>
+        <v>0.1536434864233769</v>
       </c>
       <c r="E6">
-        <v>0.1736390900888196</v>
+        <v>0.1736879959785966</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.126534286178384</v>
+        <v>0.6833468110518481</v>
       </c>
       <c r="H6">
-        <v>1.439741569737222</v>
+        <v>1.440571457698709</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.435625569915004</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4162440614436065</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4161341206885751</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876691526880506</v>
+        <v>2.876480055139666</v>
       </c>
       <c r="C7">
-        <v>0.9882828603250857</v>
+        <v>0.9873049952570625</v>
       </c>
       <c r="D7">
-        <v>0.1618716786845908</v>
+        <v>0.1618651592081193</v>
       </c>
       <c r="E7">
-        <v>0.1830690324394695</v>
+        <v>0.1831196403511868</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.217316206157093</v>
+        <v>0.7146357669451362</v>
       </c>
       <c r="H7">
-        <v>1.493542717783214</v>
+        <v>1.499713869482605</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.489237658576116</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4390813037562182</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4389633779440203</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.540172527121285</v>
+        <v>3.539778044102775</v>
       </c>
       <c r="C8">
-        <v>1.219777554092047</v>
+        <v>1.218535086977113</v>
       </c>
       <c r="D8">
-        <v>0.1990849878244489</v>
+        <v>0.1990725855872029</v>
       </c>
       <c r="E8">
-        <v>0.2259174343756243</v>
+        <v>0.2259748614483073</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.633454884005843</v>
+        <v>0.8578053024127286</v>
       </c>
       <c r="H8">
-        <v>1.741253174283287</v>
+        <v>1.771088685091101</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.736090350836363</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5425688400672826</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5424116448501692</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.911239985643533</v>
+        <v>4.910315866614155</v>
       </c>
       <c r="C9">
-        <v>1.701097434546</v>
+        <v>1.699254937642024</v>
       </c>
       <c r="D9">
-        <v>0.2767522226354231</v>
+        <v>0.2767219059801391</v>
       </c>
       <c r="E9">
-        <v>0.3162291924221208</v>
+        <v>0.3162955811769237</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.52520423443147</v>
+        <v>1.16358709696604</v>
       </c>
       <c r="H9">
-        <v>2.276699929103103</v>
+        <v>2.353676183792487</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.269726813926411</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7594231060923136</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.7591666477621359</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.986497236526986</v>
+        <v>5.985011322732248</v>
       </c>
       <c r="C10">
-        <v>2.081469746830578</v>
+        <v>2.079103427590212</v>
       </c>
       <c r="D10">
-        <v>0.3382658541120094</v>
+        <v>0.3382154275453075</v>
       </c>
       <c r="E10">
-        <v>0.3885975806019815</v>
+        <v>0.3886650530373075</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.249847904188357</v>
+        <v>1.411373698833728</v>
       </c>
       <c r="H10">
-        <v>2.715251828789334</v>
+        <v>2.827792031614791</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.706815555647282</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9321682101231517</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.931814856846799</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.497618392328434</v>
+        <v>6.495817583488019</v>
       </c>
       <c r="C11">
-        <v>2.263203780775314</v>
+        <v>2.260570639720299</v>
       </c>
       <c r="D11">
-        <v>0.3676678299675871</v>
+        <v>0.367605738866601</v>
       </c>
       <c r="E11">
-        <v>0.4234531148715064</v>
+        <v>0.4235188884704542</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.60122970091561</v>
+        <v>1.531359444492466</v>
       </c>
       <c r="H11">
-        <v>2.928792275049133</v>
+        <v>3.057853661561154</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.919644583227637</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.015085574033847</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.014679519181158</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.695091796881798</v>
+        <v>6.693160659948717</v>
       </c>
       <c r="C12">
-        <v>2.33358025702114</v>
+        <v>2.330840760904721</v>
       </c>
       <c r="D12">
-        <v>0.3790533066098334</v>
+        <v>0.3789863157243616</v>
       </c>
       <c r="E12">
-        <v>0.436997153384425</v>
+        <v>0.4370618421092018</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.738118340644661</v>
+        <v>1.578077128191211</v>
       </c>
       <c r="H12">
-        <v>3.012121308885554</v>
+        <v>3.147503204931098</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.002695714556182</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.047258670521543</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.04683100881671</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.652373917348029</v>
+        <v>6.650471391203837</v>
       </c>
       <c r="C13">
-        <v>2.318348506859707</v>
+        <v>2.315632175909741</v>
       </c>
       <c r="D13">
-        <v>0.3765891816726565</v>
+        <v>0.3765232698755625</v>
       </c>
       <c r="E13">
-        <v>0.4340636292336129</v>
+        <v>0.4341285737840437</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.708453800945506</v>
+        <v>1.567954295611287</v>
       </c>
       <c r="H13">
-        <v>2.99405705077595</v>
+        <v>3.128074576068315</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.984691722415633</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.040292417595836</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.039869490720164</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.513781055197342</v>
+        <v>6.511969763803052</v>
       </c>
       <c r="C14">
-        <v>2.268960471816683</v>
+        <v>2.266318695650966</v>
       </c>
       <c r="D14">
-        <v>0.3685991684516665</v>
+        <v>0.3685366847535079</v>
       </c>
       <c r="E14">
-        <v>0.4245600395945033</v>
+        <v>0.4246257336865895</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.612410314153891</v>
+        <v>1.535175705480725</v>
       </c>
       <c r="H14">
-        <v>2.935595471402436</v>
+        <v>3.065175463179003</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.926425099740612</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.01771597384915</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.017308177294467</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.429425295225315</v>
+        <v>6.427668355050969</v>
       </c>
       <c r="C15">
-        <v>2.238922013540048</v>
+        <v>2.236325169937118</v>
       </c>
       <c r="D15">
-        <v>0.3637394049932254</v>
+        <v>0.363678953977427</v>
       </c>
       <c r="E15">
-        <v>0.4187859865195094</v>
+        <v>0.4188520776577818</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.554102898543277</v>
+        <v>1.515272702505541</v>
       </c>
       <c r="H15">
-        <v>2.900122135007834</v>
+        <v>3.026992886227987</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.891070006383373</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.003993114936108</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.003594356787659</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.953598037659162</v>
+        <v>5.952131308007552</v>
       </c>
       <c r="C16">
-        <v>2.069792780149896</v>
+        <v>2.067443228409616</v>
       </c>
       <c r="D16">
-        <v>0.336376758111598</v>
+        <v>0.3363270337496687</v>
       </c>
       <c r="E16">
-        <v>0.3863640000428745</v>
+        <v>0.3864315296218095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.227378328002033</v>
+        <v>1.403697666681325</v>
       </c>
       <c r="H16">
-        <v>2.701615045379</v>
+        <v>2.81308365577317</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.693224191262374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9268487335230873</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9264986187977087</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.667816003510836</v>
+        <v>5.666510523957641</v>
       </c>
       <c r="C17">
-        <v>1.968463822964281</v>
+        <v>1.966257910953516</v>
       </c>
       <c r="D17">
-        <v>0.319984904023201</v>
+        <v>0.3199410411301216</v>
       </c>
       <c r="E17">
-        <v>0.3670127799872489</v>
+        <v>0.3670805543447671</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.03296502515127</v>
+        <v>1.337264246411962</v>
       </c>
       <c r="H17">
-        <v>2.583722667700357</v>
+        <v>2.685840042383461</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.575724543938023</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8807306492705891</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.8804079145000117</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.505456698109015</v>
+        <v>5.504238570574273</v>
       </c>
       <c r="C18">
-        <v>1.910979262429123</v>
+        <v>1.90885337225933</v>
       </c>
       <c r="D18">
-        <v>0.3106869570431314</v>
+        <v>0.3106462377431853</v>
       </c>
       <c r="E18">
-        <v>0.3560598327018312</v>
+        <v>0.3561275512817303</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.923139961314604</v>
+        <v>1.299720675642931</v>
       </c>
       <c r="H18">
-        <v>2.517204057378237</v>
+        <v>2.613974060360476</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.509427649384449</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8546020377141161</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8542942703178227</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.450810061366269</v>
+        <v>5.449620649056783</v>
       </c>
       <c r="C19">
-        <v>1.891644608025445</v>
+        <v>1.889545397503525</v>
       </c>
       <c r="D19">
-        <v>0.3075599066634425</v>
+        <v>0.3075202156915822</v>
       </c>
       <c r="E19">
-        <v>0.3523800119507428</v>
+        <v>0.3524476810232073</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.886278929699984</v>
+        <v>1.287117239218304</v>
       </c>
       <c r="H19">
-        <v>2.494891441395978</v>
+        <v>2.589855873614397</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.487189436046123</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8458195016833656</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8455166783176793</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.698024444515738</v>
+        <v>5.696702374048073</v>
       </c>
       <c r="C20">
-        <v>1.97916594930058</v>
+        <v>1.976945022947348</v>
       </c>
       <c r="D20">
-        <v>0.3217160556591381</v>
+        <v>0.3216715931295795</v>
       </c>
       <c r="E20">
-        <v>0.3690539566457431</v>
+        <v>0.3691217260617066</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.053449429321574</v>
+        <v>1.344265591798063</v>
       </c>
       <c r="H20">
-        <v>2.596136070123066</v>
+        <v>2.699245571645889</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.588096583577098</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8855978922917984</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8852723262504867</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.554375751989539</v>
+        <v>6.552537987878679</v>
       </c>
       <c r="C21">
-        <v>2.283421868417918</v>
+        <v>2.280758349454004</v>
       </c>
       <c r="D21">
-        <v>0.3709387704815725</v>
+        <v>0.3708752941313804</v>
       </c>
       <c r="E21">
-        <v>0.4273415026260778</v>
+        <v>0.4274069897918551</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.640510351171713</v>
+        <v>1.544766638446248</v>
       </c>
       <c r="H21">
-        <v>2.952696076322269</v>
+        <v>3.083577597515301</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.943468689949384</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.024324841413616</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.023912649447908</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.137403120876854</v>
+        <v>7.135161888951757</v>
       </c>
       <c r="C22">
-        <v>2.491547142908473</v>
+        <v>2.488562525335112</v>
       </c>
       <c r="D22">
-        <v>0.4046052835221303</v>
+        <v>0.4045264784555656</v>
       </c>
       <c r="E22">
-        <v>0.4674896880263688</v>
+        <v>0.4675510118734607</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.046948918906111</v>
+        <v>1.68342731438787</v>
       </c>
       <c r="H22">
-        <v>3.200386631040246</v>
+        <v>3.349803219017019</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.190331988105399</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.119599787810913</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.119121062533736</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.823794928168468</v>
+        <v>6.821776181285088</v>
       </c>
       <c r="C23">
-        <v>2.379497424076703</v>
+        <v>2.376687599847173</v>
       </c>
       <c r="D23">
-        <v>0.3864813134135119</v>
+        <v>0.3864110064562709</v>
       </c>
       <c r="E23">
-        <v>0.4458476193083101</v>
+        <v>0.445911465165743</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.827667280644704</v>
+        <v>1.608631344172323</v>
       </c>
       <c r="H23">
-        <v>3.066673290858162</v>
+        <v>3.206156273378667</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.057065614762053</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.068268720266801</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.067826586944591</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.684361219047787</v>
+        <v>5.683046665824179</v>
       </c>
       <c r="C24">
-        <v>1.974325139291864</v>
+        <v>1.972111008805769</v>
       </c>
       <c r="D24">
-        <v>0.3209330131504515</v>
+        <v>0.3208888224124706</v>
       </c>
       <c r="E24">
-        <v>0.3681306087523737</v>
+        <v>0.3681983810055485</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.044182420557888</v>
+        <v>1.341098276457586</v>
       </c>
       <c r="H24">
-        <v>2.590520080876061</v>
+        <v>2.693180953299901</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.58249930698544</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8833962225448744</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.8830719389021056</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.530494855912082</v>
+        <v>4.529738370646896</v>
       </c>
       <c r="C25">
-        <v>1.567027036144339</v>
+        <v>1.565358538996975</v>
       </c>
       <c r="D25">
-        <v>0.2550909869029141</v>
+        <v>0.2550664661540338</v>
       </c>
       <c r="E25">
-        <v>0.2909224957067025</v>
+        <v>0.2909871685714194</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.273692835176263</v>
+        <v>1.077454967239774</v>
       </c>
       <c r="H25">
-        <v>2.125147250118047</v>
+        <v>2.189247797681759</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.118682540640236</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.698811639169584</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.6985853244347027</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723433152573818</v>
+        <v>6.059610122336892</v>
       </c>
       <c r="C2">
-        <v>1.282719306462411</v>
+        <v>1.859636010000713</v>
       </c>
       <c r="D2">
-        <v>0.2094210638748422</v>
+        <v>0.5532599089971768</v>
       </c>
       <c r="E2">
-        <v>0.237943472242101</v>
+        <v>0.2470344589494076</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8980434934379389</v>
+        <v>0.0008129518462534652</v>
       </c>
       <c r="H2">
-        <v>1.847547833333365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.805863301859091</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1463692766320293</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.809954101904779</v>
       </c>
       <c r="L2">
-        <v>0.5712271889767209</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>4.264573591813871</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.195476254340463</v>
+        <v>5.269043944531063</v>
       </c>
       <c r="C3">
-        <v>1.098396924903909</v>
+        <v>1.612379529378018</v>
       </c>
       <c r="D3">
-        <v>0.179724970022292</v>
+        <v>0.495821885116527</v>
       </c>
       <c r="E3">
-        <v>0.2036555521301153</v>
+        <v>0.2198567645824383</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7830510334491265</v>
+        <v>0.0008293798688343568</v>
       </c>
       <c r="H3">
-        <v>1.629251350400096</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.606905695735108</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1291104636490985</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.572558942862841</v>
       </c>
       <c r="L3">
-        <v>0.4885902496490644</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>4.002162531454161</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.878209654003058</v>
+        <v>4.803085685594908</v>
       </c>
       <c r="C4">
-        <v>0.9879067847207637</v>
+        <v>1.46692528056667</v>
       </c>
       <c r="D4">
-        <v>0.1619618147417867</v>
+        <v>0.462312777724037</v>
       </c>
       <c r="E4">
-        <v>0.1832306034126461</v>
+        <v>0.2039829623674976</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7150044021272635</v>
+        <v>0.0008395781857271332</v>
       </c>
       <c r="H4">
-        <v>1.50041106118374</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.489870091640825</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1190165567376127</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.432712474637952</v>
       </c>
       <c r="L4">
-        <v>0.4392318209159427</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.847043428406636</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750370589101067</v>
+        <v>4.617342220218404</v>
       </c>
       <c r="C5">
-        <v>0.9434429731026057</v>
+        <v>1.409000170977606</v>
       </c>
       <c r="D5">
-        <v>0.1548232811285573</v>
+        <v>0.4490378922486684</v>
       </c>
       <c r="E5">
-        <v>0.1750405604771004</v>
+        <v>0.1976894763070121</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6878283745552949</v>
+        <v>0.0008437704943831115</v>
       </c>
       <c r="H5">
-        <v>1.449038320369027</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.443296149350573</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1150109746314953</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.376981011095467</v>
       </c>
       <c r="L5">
-        <v>0.4194094910251991</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.785118507427029</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729222849408814</v>
+        <v>4.586729667913119</v>
       </c>
       <c r="C6">
-        <v>0.9360906680109053</v>
+        <v>1.399456572087843</v>
       </c>
       <c r="D6">
-        <v>0.1536434864233769</v>
+        <v>0.4468549476994212</v>
       </c>
       <c r="E6">
-        <v>0.1736879959785966</v>
+        <v>0.1966542556232085</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6833468110518481</v>
+        <v>0.000844469045669597</v>
       </c>
       <c r="H6">
-        <v>1.440571457698709</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.435625569915004</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1143518648707413</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.367796678036044</v>
       </c>
       <c r="L6">
-        <v>0.4161341206885751</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.774907777551789</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876480055139666</v>
+        <v>4.800564843201755</v>
       </c>
       <c r="C7">
-        <v>0.9873049952570625</v>
+        <v>1.466138926106453</v>
       </c>
       <c r="D7">
-        <v>0.1618651592081193</v>
+        <v>0.4621322828641894</v>
       </c>
       <c r="E7">
-        <v>0.1831196403511868</v>
+        <v>0.2038974123283737</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7146357669451362</v>
+        <v>0.0008396345671188553</v>
       </c>
       <c r="H7">
-        <v>1.499713869482605</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.489237658576116</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1189621224233974</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.431956050233282</v>
       </c>
       <c r="L7">
-        <v>0.4389633779440203</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.846203345232453</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.539778044102775</v>
+        <v>5.782494482297523</v>
       </c>
       <c r="C8">
-        <v>1.218535086977113</v>
+        <v>1.772897527095381</v>
       </c>
       <c r="D8">
-        <v>0.1990725855872029</v>
+        <v>0.5330501086366723</v>
       </c>
       <c r="E8">
-        <v>0.2259748614483073</v>
+        <v>0.2374756265108431</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8578053024127286</v>
+        <v>0.0008185985577227468</v>
       </c>
       <c r="H8">
-        <v>1.771088685091101</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.736090350836363</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1403017897309837</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.726722369058479</v>
       </c>
       <c r="L8">
-        <v>0.5424116448501692</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>4.172704185215508</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.910315866614155</v>
+        <v>7.903924483580909</v>
       </c>
       <c r="C9">
-        <v>1.699254937642024</v>
+        <v>2.438828351697452</v>
       </c>
       <c r="D9">
-        <v>0.2767219059801391</v>
+        <v>0.6894802077156612</v>
       </c>
       <c r="E9">
-        <v>0.3162955811769237</v>
+        <v>0.3113981490858464</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.16358709696604</v>
+        <v>0.0007777705857404559</v>
       </c>
       <c r="H9">
-        <v>2.353676183792487</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.269726813926411</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.187177996697244</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.364400833239586</v>
       </c>
       <c r="L9">
-        <v>0.7591666477621359</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.872744730940752</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.985011322732248</v>
+        <v>9.656162318927272</v>
       </c>
       <c r="C10">
-        <v>2.079103427590212</v>
+        <v>2.992292616012776</v>
       </c>
       <c r="D10">
-        <v>0.3382154275453075</v>
+        <v>0.8211071868900319</v>
       </c>
       <c r="E10">
-        <v>0.3886650530373075</v>
+        <v>0.373543043450745</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.411373698833728</v>
+        <v>0.0007472117830654393</v>
       </c>
       <c r="H10">
-        <v>2.827792031614791</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.706815555647282</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2265494006718427</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.892009581450466</v>
       </c>
       <c r="L10">
-        <v>0.931814856846799</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.445036629348976</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.495817583488019</v>
+        <v>10.51877791641209</v>
       </c>
       <c r="C11">
-        <v>2.260570639720299</v>
+        <v>3.265951102694373</v>
       </c>
       <c r="D11">
-        <v>0.367605738866601</v>
+        <v>0.8865515200809853</v>
       </c>
       <c r="E11">
-        <v>0.4235188884704542</v>
+        <v>0.4044397776732183</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.531359444492466</v>
+        <v>0.0007329293187127474</v>
       </c>
       <c r="H11">
-        <v>3.057853661561154</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.919644583227637</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2461251263324158</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.152062345416113</v>
       </c>
       <c r="L11">
-        <v>1.014679519181158</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.724704825314063</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.693160659948717</v>
+        <v>10.85760169547666</v>
       </c>
       <c r="C12">
-        <v>2.330840760904721</v>
+        <v>3.373662436247116</v>
       </c>
       <c r="D12">
-        <v>0.3789863157243616</v>
+        <v>0.9123624573275606</v>
       </c>
       <c r="E12">
-        <v>0.4370618421092018</v>
+        <v>0.4166263982963514</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.578077128191211</v>
+        <v>0.0007274358203170258</v>
       </c>
       <c r="H12">
-        <v>3.147503204931098</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.002695714556182</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2538476876687952</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.254266050291591</v>
       </c>
       <c r="L12">
-        <v>1.04683100881671</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.83417180651071</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.650471391203837</v>
+        <v>10.78403503276445</v>
       </c>
       <c r="C13">
-        <v>2.315632175909741</v>
+        <v>3.350264978734515</v>
       </c>
       <c r="D13">
-        <v>0.3765232698755625</v>
+        <v>0.9067534055535589</v>
       </c>
       <c r="E13">
-        <v>0.4341285737840437</v>
+        <v>0.4139780139598059</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.567954295611287</v>
+        <v>0.000728623315604072</v>
       </c>
       <c r="H13">
-        <v>3.128074576068315</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.984691722415633</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.252169349806934</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.232072368316324</v>
       </c>
       <c r="L13">
-        <v>1.039869490720164</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>5.810422460278062</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.511969763803052</v>
+        <v>10.54639027053213</v>
       </c>
       <c r="C14">
-        <v>2.266318695650966</v>
+        <v>3.27472427631875</v>
       </c>
       <c r="D14">
-        <v>0.3685366847535079</v>
+        <v>0.8886528099041016</v>
       </c>
       <c r="E14">
-        <v>0.4246257336865895</v>
+        <v>0.4054318701193296</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.535175705480725</v>
+        <v>0.0007324792781277681</v>
       </c>
       <c r="H14">
-        <v>3.065175463179003</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.926425099740612</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2467537740976837</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.16039016265438</v>
       </c>
       <c r="L14">
-        <v>1.017308177294467</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.733633950715387</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.427668355050969</v>
+        <v>10.40250767669352</v>
       </c>
       <c r="C15">
-        <v>2.236325169937118</v>
+        <v>3.229018145187922</v>
       </c>
       <c r="D15">
-        <v>0.363678953977427</v>
+        <v>0.8777076677971252</v>
       </c>
       <c r="E15">
-        <v>0.4188520776577818</v>
+        <v>0.4002643377556367</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.515272702505541</v>
+        <v>0.0007348290273584662</v>
       </c>
       <c r="H15">
-        <v>3.026992886227987</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.891070006383373</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2434793823221497</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.116997945369206</v>
       </c>
       <c r="L15">
-        <v>1.003594356787659</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.687090225504221</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.952131308007552</v>
+        <v>9.601322487108177</v>
       </c>
       <c r="C16">
-        <v>2.067443228409616</v>
+        <v>2.974922134026087</v>
       </c>
       <c r="D16">
-        <v>0.3363270337496687</v>
+        <v>0.8169601546520369</v>
       </c>
       <c r="E16">
-        <v>0.3864315296218095</v>
+        <v>0.3715852709289393</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.403697666681325</v>
+        <v>0.0007481351330370924</v>
       </c>
       <c r="H16">
-        <v>2.81308365577317</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.693224191262374</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2253090936514894</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.875484146424085</v>
       </c>
       <c r="L16">
-        <v>0.9264986187977087</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.427210204777566</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.666510523957641</v>
+        <v>9.128302898453398</v>
       </c>
       <c r="C17">
-        <v>1.966257910953516</v>
+        <v>2.825225737433698</v>
       </c>
       <c r="D17">
-        <v>0.3199410411301216</v>
+        <v>0.7812603051004317</v>
       </c>
       <c r="E17">
-        <v>0.3670805543447671</v>
+        <v>0.3547316953809911</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.337264246411962</v>
+        <v>0.0007561816656187476</v>
       </c>
       <c r="H17">
-        <v>2.685840042383461</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.575724543938023</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2146320966691633</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.732979307091966</v>
       </c>
       <c r="L17">
-        <v>0.8804079145000117</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.273219250863747</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.504238570574273</v>
+        <v>8.862196103009524</v>
       </c>
       <c r="C18">
-        <v>1.90885337225933</v>
+        <v>2.741114308471538</v>
       </c>
       <c r="D18">
-        <v>0.3106462377431853</v>
+        <v>0.7612336196549734</v>
       </c>
       <c r="E18">
-        <v>0.3561275512817303</v>
+        <v>0.3452770625786457</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.299720675642931</v>
+        <v>0.0007607761989581147</v>
       </c>
       <c r="H18">
-        <v>2.613974060360476</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.509427649384449</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.208642486865358</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.652837571624559</v>
       </c>
       <c r="L18">
-        <v>0.8542942703178227</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.186408970090383</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.449620649056783</v>
+        <v>8.773050313781596</v>
       </c>
       <c r="C19">
-        <v>1.889545397503525</v>
+        <v>2.712953471904996</v>
       </c>
       <c r="D19">
-        <v>0.3075202156915822</v>
+        <v>0.754534151259719</v>
       </c>
       <c r="E19">
-        <v>0.3524476810232073</v>
+        <v>0.3421141634225862</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.287117239218304</v>
+        <v>0.000762326830329163</v>
       </c>
       <c r="H19">
-        <v>2.589855873614397</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.487189436046123</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2066387377776664</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.62599444032206</v>
       </c>
       <c r="L19">
-        <v>0.8455166783176793</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.157298838404529</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.696702374048073</v>
+        <v>9.178022410184212</v>
       </c>
       <c r="C20">
-        <v>1.976945022947348</v>
+        <v>2.840949367191627</v>
       </c>
       <c r="D20">
-        <v>0.3216715931295795</v>
+        <v>0.7850067222840948</v>
       </c>
       <c r="E20">
-        <v>0.3691217260617066</v>
+        <v>0.3565003597907221</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.344265591798063</v>
+        <v>0.0007553287676407368</v>
       </c>
       <c r="H20">
-        <v>2.699245571645889</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.588096583577098</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2157525613281308</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.747955191855482</v>
       </c>
       <c r="L20">
-        <v>0.8852723262504867</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.289424645055476</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.552537987878679</v>
+        <v>10.61583559384133</v>
       </c>
       <c r="C21">
-        <v>2.280758349454004</v>
+        <v>3.296792590291375</v>
       </c>
       <c r="D21">
-        <v>0.3708752941313804</v>
+        <v>0.8939392829402948</v>
       </c>
       <c r="E21">
-        <v>0.4274069897918551</v>
+        <v>0.4079278213941961</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.544766638446248</v>
+        <v>0.0007313492869192276</v>
       </c>
       <c r="H21">
-        <v>3.083577597515301</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.943468689949384</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2483353794865337</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.181335674387725</v>
       </c>
       <c r="L21">
-        <v>1.023912649447908</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.756084408495099</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.135161888951757</v>
+        <v>11.62847924578716</v>
       </c>
       <c r="C22">
-        <v>2.488562525335112</v>
+        <v>3.619199880275403</v>
       </c>
       <c r="D22">
-        <v>0.4045264784555656</v>
+        <v>0.9712960679256639</v>
       </c>
       <c r="E22">
-        <v>0.4675510118734607</v>
+        <v>0.4444557338548734</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.68342731438787</v>
+        <v>0.0007151594924187353</v>
       </c>
       <c r="H22">
-        <v>3.349803219017019</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.190331988105399</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2714868561018164</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.486921231119538</v>
       </c>
       <c r="L22">
-        <v>1.119121062533736</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.082408834073362</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.821776181285088</v>
+        <v>11.0801713002586</v>
       </c>
       <c r="C23">
-        <v>2.376687599847173</v>
+        <v>3.444486069825132</v>
       </c>
       <c r="D23">
-        <v>0.3864110064562709</v>
+        <v>0.9293484224264716</v>
       </c>
       <c r="E23">
-        <v>0.445911465165743</v>
+        <v>0.4246468167908404</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.608631344172323</v>
+        <v>0.0007238604947486872</v>
       </c>
       <c r="H23">
-        <v>3.206156273378667</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.057065614762053</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2589306899048438</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.321420772144165</v>
       </c>
       <c r="L23">
-        <v>1.067826586944591</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>5.905960551684188</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.683046665824179</v>
+        <v>9.155526227785344</v>
       </c>
       <c r="C24">
-        <v>1.972111008805769</v>
+        <v>2.833834703259697</v>
       </c>
       <c r="D24">
-        <v>0.3208888224124706</v>
+        <v>0.7833114331764648</v>
       </c>
       <c r="E24">
-        <v>0.3681983810055485</v>
+        <v>0.3557000232320959</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.341098276457586</v>
+        <v>0.0007557144587013542</v>
       </c>
       <c r="H24">
-        <v>2.693180953299901</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.58249930698544</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2152455409236325</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.741179090515615</v>
       </c>
       <c r="L24">
-        <v>0.8830719389021056</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.282092880734467</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.529738370646896</v>
+        <v>7.302436730679176</v>
       </c>
       <c r="C25">
-        <v>1.565358538996975</v>
+        <v>2.249565734067119</v>
       </c>
       <c r="D25">
-        <v>0.2550664661540338</v>
+        <v>0.6447590518174593</v>
       </c>
       <c r="E25">
-        <v>0.2909871685714194</v>
+        <v>0.2902767537017183</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.077454967239774</v>
+        <v>0.0007888435731537284</v>
       </c>
       <c r="H25">
-        <v>2.189247797681759</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.118682540640236</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1737926196967052</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.183480738122782</v>
       </c>
       <c r="L25">
-        <v>0.6985853244347027</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.675037635947831</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.059610122336892</v>
+        <v>1.115128751909651</v>
       </c>
       <c r="C2">
-        <v>1.859636010000713</v>
+        <v>0.1155085684793704</v>
       </c>
       <c r="D2">
-        <v>0.5532599089971768</v>
+        <v>0.1930244032202069</v>
       </c>
       <c r="E2">
-        <v>0.2470344589494076</v>
+        <v>0.05034384881750675</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008129518462534652</v>
+        <v>0.0008228610019471773</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1463692766320293</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.809954101904779</v>
+        <v>0.9281152953475384</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1477850708109898</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2311927989761351</v>
       </c>
       <c r="N2">
-        <v>4.264573591813871</v>
+        <v>1.167711294797826</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.736600243467819</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.269043944531063</v>
+        <v>0.9739611874178706</v>
       </c>
       <c r="C3">
-        <v>1.612379529378018</v>
+        <v>0.1111870968064821</v>
       </c>
       <c r="D3">
-        <v>0.495821885116527</v>
+        <v>0.1674534882794632</v>
       </c>
       <c r="E3">
-        <v>0.2198567645824383</v>
+        <v>0.04945950110100483</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008293798688343568</v>
+        <v>0.0008271329032648343</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1291104636490985</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.572558942862841</v>
+        <v>0.8051299813038781</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.134254898508857</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2036548898717285</v>
       </c>
       <c r="N3">
-        <v>4.002162531454161</v>
+        <v>1.21549716037169</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.662781072248549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.803085685594908</v>
+        <v>0.8879494479159291</v>
       </c>
       <c r="C4">
-        <v>1.46692528056667</v>
+        <v>0.1085270033960555</v>
       </c>
       <c r="D4">
-        <v>0.462312777724037</v>
+        <v>0.1519009188358638</v>
       </c>
       <c r="E4">
-        <v>0.2039829623674976</v>
+        <v>0.04897487468381279</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008395781857271332</v>
+        <v>0.0008298446880612154</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1190165567376127</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.432712474637952</v>
+        <v>0.7299667219297419</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1261073642071224</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1869211495810532</v>
       </c>
       <c r="N4">
-        <v>3.847043428406636</v>
+        <v>1.24619082309367</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.621885196208694</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.617342220218404</v>
+        <v>0.8530475791076242</v>
       </c>
       <c r="C5">
-        <v>1.409000170977606</v>
+        <v>0.1074408652301244</v>
       </c>
       <c r="D5">
-        <v>0.4490378922486684</v>
+        <v>0.1455959156412803</v>
       </c>
       <c r="E5">
-        <v>0.1976894763070121</v>
+        <v>0.04879160209263844</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008437704943831115</v>
+        <v>0.0008309724933655082</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1150109746314953</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.376981011095467</v>
+        <v>0.6994099320388756</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1228248212399592</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1801418848231791</v>
       </c>
       <c r="N5">
-        <v>3.785118507427029</v>
+        <v>1.259031094603834</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.606282483627638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.586729667913119</v>
+        <v>0.8472605962162731</v>
       </c>
       <c r="C6">
-        <v>1.399456572087843</v>
+        <v>0.1072603717968619</v>
       </c>
       <c r="D6">
-        <v>0.4468549476994212</v>
+        <v>0.1445508298001954</v>
       </c>
       <c r="E6">
-        <v>0.1966542556232085</v>
+        <v>0.04876201542285052</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000844469045669597</v>
+        <v>0.0008311611487495963</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1143518648707413</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.367796678036044</v>
+        <v>0.6943399712274498</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1222819574940459</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1790184868994977</v>
       </c>
       <c r="N6">
-        <v>3.774907777551789</v>
+        <v>1.261183063439091</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.603754404209468</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.800564843201755</v>
+        <v>0.8874781714785058</v>
       </c>
       <c r="C7">
-        <v>1.466138926106453</v>
+        <v>0.1085123645434081</v>
       </c>
       <c r="D7">
-        <v>0.4621322828641894</v>
+        <v>0.1518157602799022</v>
       </c>
       <c r="E7">
-        <v>0.2038974123283737</v>
+        <v>0.0489723460352387</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008396345671188553</v>
+        <v>0.0008298598055099249</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1189621224233974</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.431956050233282</v>
+        <v>0.7295543469249139</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1260629456104567</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1868295658059616</v>
       </c>
       <c r="N7">
-        <v>3.846203345232453</v>
+        <v>1.246362655865315</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.621670535412392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.782494482297523</v>
+        <v>1.066304344283679</v>
       </c>
       <c r="C8">
-        <v>1.772897527095381</v>
+        <v>0.1140196352626788</v>
       </c>
       <c r="D8">
-        <v>0.5330501086366723</v>
+        <v>0.1841740705155672</v>
       </c>
       <c r="E8">
-        <v>0.2374756265108431</v>
+        <v>0.05002652761577409</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008185985577227468</v>
+        <v>0.0008243157632576432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1403017897309837</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.726722369058479</v>
+        <v>0.8856278167518212</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1430850388383504</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2216589700999414</v>
       </c>
       <c r="N8">
-        <v>4.172704185215508</v>
+        <v>1.183902209057983</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.710196451239852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.903924483580909</v>
+        <v>1.423179337580166</v>
       </c>
       <c r="C9">
-        <v>2.438828351697452</v>
+        <v>0.1247884257585596</v>
       </c>
       <c r="D9">
-        <v>0.6894802077156612</v>
+        <v>0.2490178264978908</v>
       </c>
       <c r="E9">
-        <v>0.3113981490858464</v>
+        <v>0.05257890480434568</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007777705857404559</v>
+        <v>0.0008141297248200042</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.187177996697244</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.364400833239586</v>
+        <v>1.195209362538236</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1778609044287194</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2915416831896636</v>
       </c>
       <c r="N9">
-        <v>4.872744730940752</v>
+        <v>1.072524233336367</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.921393693672627</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.656162318927272</v>
+        <v>1.690531058155699</v>
       </c>
       <c r="C10">
-        <v>2.992292616012776</v>
+        <v>0.1327154327168216</v>
       </c>
       <c r="D10">
-        <v>0.8211071868900319</v>
+        <v>0.2978251563160796</v>
       </c>
       <c r="E10">
-        <v>0.373543043450745</v>
+        <v>0.05478244845010316</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007472117830654393</v>
+        <v>0.0008070361742505953</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2265494006718427</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.892009581450466</v>
+        <v>1.425927072420023</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2044492414451184</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3441443481979221</v>
       </c>
       <c r="N10">
-        <v>5.445036629348976</v>
+        <v>0.9980110778505775</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.103124960647619</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.51877791641209</v>
+        <v>1.813606078744613</v>
       </c>
       <c r="C11">
-        <v>3.265951102694373</v>
+        <v>0.136333295150834</v>
       </c>
       <c r="D11">
-        <v>0.8865515200809853</v>
+        <v>0.3203584028659492</v>
       </c>
       <c r="E11">
-        <v>0.4044397776732183</v>
+        <v>0.05586390474205949</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007329293187127474</v>
+        <v>0.0008038872720332727</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2461251263324158</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.152062345416113</v>
+        <v>1.531865570799937</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2168152596124742</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3684188906901511</v>
       </c>
       <c r="N11">
-        <v>5.724704825314063</v>
+        <v>0.9658324363368322</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.192439829228618</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.85760169547666</v>
+        <v>1.860449880035532</v>
       </c>
       <c r="C12">
-        <v>3.373662436247116</v>
+        <v>0.1377057397586299</v>
       </c>
       <c r="D12">
-        <v>0.9123624573275606</v>
+        <v>0.3289454355025327</v>
       </c>
       <c r="E12">
-        <v>0.4166263982963514</v>
+        <v>0.05628547663824079</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007274358203170258</v>
+        <v>0.0008027055047616306</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2538476876687952</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.254266050291591</v>
+        <v>1.572147045789904</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2215408662320186</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3776669388329523</v>
       </c>
       <c r="N12">
-        <v>5.83417180651071</v>
+        <v>0.9539062306884958</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.227294924041729</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.78403503276445</v>
+        <v>1.850350165946452</v>
       </c>
       <c r="C13">
-        <v>3.350264978734515</v>
+        <v>0.1374100383140373</v>
       </c>
       <c r="D13">
-        <v>0.9067534055535589</v>
+        <v>0.3270935436344331</v>
       </c>
       <c r="E13">
-        <v>0.4139780139598059</v>
+        <v>0.05619413643133697</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000728623315604072</v>
+        <v>0.0008029595550567276</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.252169349806934</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.232072368316324</v>
+        <v>1.563463985268669</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2205211505085884</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3756726214053145</v>
       </c>
       <c r="N13">
-        <v>5.810422460278062</v>
+        <v>0.956463023755127</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.219740985118221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.54639027053213</v>
+        <v>1.817455005358227</v>
       </c>
       <c r="C14">
-        <v>3.27472427631875</v>
+        <v>0.1364461536509722</v>
       </c>
       <c r="D14">
-        <v>0.8886528099041016</v>
+        <v>0.3210637375405412</v>
       </c>
       <c r="E14">
-        <v>0.4054318701193296</v>
+        <v>0.05589834219840917</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007324792781277681</v>
+        <v>0.0008037898371144846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2467537740976837</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.16039016265438</v>
+        <v>1.53517610746519</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2172031556133618</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3691785778962711</v>
       </c>
       <c r="N14">
-        <v>5.733633950715387</v>
+        <v>0.9648459937430118</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.195286198146079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.40250767669352</v>
+        <v>1.797337647400298</v>
       </c>
       <c r="C15">
-        <v>3.229018145187922</v>
+        <v>0.1358560871048056</v>
       </c>
       <c r="D15">
-        <v>0.8777076677971252</v>
+        <v>0.3173775686961307</v>
       </c>
       <c r="E15">
-        <v>0.4002643377556367</v>
+        <v>0.05571874964796208</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007348290273584662</v>
+        <v>0.0008042997790712387</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2434793823221497</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.116997945369206</v>
+        <v>1.517871160572554</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2151764911379956</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3652082465610462</v>
       </c>
       <c r="N15">
-        <v>5.687090225504221</v>
+        <v>0.9700149293415308</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.180443942530417</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.601322487108177</v>
+        <v>1.682519505215282</v>
       </c>
       <c r="C16">
-        <v>2.974922134026087</v>
+        <v>0.1324792964394561</v>
       </c>
       <c r="D16">
-        <v>0.8169601546520369</v>
+        <v>0.2963597647207621</v>
       </c>
       <c r="E16">
-        <v>0.3715852709289393</v>
+        <v>0.05471342059474793</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007481351330370924</v>
+        <v>0.0008072434846729421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2253090936514894</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.875484146424085</v>
+        <v>1.419025498932484</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2036468716568436</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3425654138992158</v>
       </c>
       <c r="N16">
-        <v>5.427210204777566</v>
+        <v>1.000149610391588</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.097428265083892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.128302898453398</v>
+        <v>1.612474792585886</v>
       </c>
       <c r="C17">
-        <v>2.825225737433698</v>
+        <v>0.1304112780534865</v>
       </c>
       <c r="D17">
-        <v>0.7812603051004317</v>
+        <v>0.2835552670243544</v>
       </c>
       <c r="E17">
-        <v>0.3547316953809911</v>
+        <v>0.05411740092927175</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007561816656187476</v>
+        <v>0.0008090689398990367</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2146320966691633</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.732979307091966</v>
+        <v>1.358654962735017</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1966458937409641</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3287674494587094</v>
       </c>
       <c r="N17">
-        <v>5.273219250863747</v>
+        <v>1.019084575001031</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.048256342060682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.862196103009524</v>
+        <v>1.57232207388725</v>
       </c>
       <c r="C18">
-        <v>2.741114308471538</v>
+        <v>0.1292228737776995</v>
       </c>
       <c r="D18">
-        <v>0.7612336196549734</v>
+        <v>0.2762211459989317</v>
       </c>
       <c r="E18">
-        <v>0.3452770625786457</v>
+        <v>0.05378198370836529</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007607761989581147</v>
+        <v>0.0008101262698698153</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.208642486865358</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.652837571624559</v>
+        <v>1.32402252962487</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1926443595519629</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3208633348872425</v>
       </c>
       <c r="N18">
-        <v>5.186408970090383</v>
+        <v>1.030136371797234</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.020594350249269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.773050313781596</v>
+        <v>1.558749425594698</v>
       </c>
       <c r="C19">
-        <v>2.712953471904996</v>
+        <v>0.1288206620618908</v>
       </c>
       <c r="D19">
-        <v>0.754534151259719</v>
+        <v>0.2737430142878878</v>
       </c>
       <c r="E19">
-        <v>0.3421141634225862</v>
+        <v>0.05366966774546533</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000762326830329163</v>
+        <v>0.0008104855470578904</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2066387377776664</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.62599444032206</v>
+        <v>1.312311545897018</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1912937295731609</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3181924723351415</v>
       </c>
       <c r="N19">
-        <v>5.157298838404529</v>
+        <v>1.033905600898002</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.011332745070291</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.178022410184212</v>
+        <v>1.619916983615241</v>
       </c>
       <c r="C20">
-        <v>2.840949367191627</v>
+        <v>0.1306313067652383</v>
       </c>
       <c r="D20">
-        <v>0.7850067222840948</v>
+        <v>0.2849151049774434</v>
       </c>
       <c r="E20">
-        <v>0.3565003597907221</v>
+        <v>0.05418007784242107</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007553287676407368</v>
+        <v>0.0008088738576418967</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2157525613281308</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.747955191855482</v>
+        <v>1.365071916836001</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1973885197468235</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3302329000036224</v>
       </c>
       <c r="N20">
-        <v>5.289424645055476</v>
+        <v>1.01705217751072</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.053426021583988</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.61583559384133</v>
+        <v>1.82711041385781</v>
       </c>
       <c r="C21">
-        <v>3.296792590291375</v>
+        <v>0.136729197537214</v>
       </c>
       <c r="D21">
-        <v>0.8939392829402948</v>
+        <v>0.3228333119159998</v>
       </c>
       <c r="E21">
-        <v>0.4079278213941961</v>
+        <v>0.05598489150969854</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007313492869192276</v>
+        <v>0.0008035456786151929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2483353794865337</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.181335674387725</v>
+        <v>1.543480273149555</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2181765352082863</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3710844700640834</v>
       </c>
       <c r="N21">
-        <v>5.756084408495099</v>
+        <v>0.9623765777971656</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.202440461992524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.62847924578716</v>
+        <v>1.963925222743654</v>
       </c>
       <c r="C22">
-        <v>3.619199880275403</v>
+        <v>0.1407291286748631</v>
       </c>
       <c r="D22">
-        <v>0.9712960679256639</v>
+        <v>0.3479342999035993</v>
       </c>
       <c r="E22">
-        <v>0.4444557338548734</v>
+        <v>0.05723501520151508</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007151594924187353</v>
+        <v>0.0008001252160229618</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2714868561018164</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.486921231119538</v>
+        <v>1.661053583408005</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2320145745336646</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3981118008644913</v>
       </c>
       <c r="N22">
-        <v>6.082408834073362</v>
+        <v>0.9281597278368352</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.305894543754903</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.0801713002586</v>
+        <v>1.890766258017464</v>
       </c>
       <c r="C23">
-        <v>3.444486069825132</v>
+        <v>0.1385926916285243</v>
       </c>
       <c r="D23">
-        <v>0.9293484224264716</v>
+        <v>0.3345058948507642</v>
       </c>
       <c r="E23">
-        <v>0.4246468167908404</v>
+        <v>0.05656110624252086</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007238604947486872</v>
+        <v>0.0008019453209074249</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2589306899048438</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.321420772144165</v>
+        <v>1.598205247573361</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2246045372863961</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3836545979848083</v>
       </c>
       <c r="N23">
-        <v>5.905960551684188</v>
+        <v>0.9462788633899351</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.250096901866073</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.155526227785344</v>
+        <v>1.61655200701469</v>
       </c>
       <c r="C24">
-        <v>2.833834703259697</v>
+        <v>0.1305318301980165</v>
       </c>
       <c r="D24">
-        <v>0.7833114331764648</v>
+        <v>0.2843002375303456</v>
       </c>
       <c r="E24">
-        <v>0.3557000232320959</v>
+        <v>0.05415171910232708</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007557144587013542</v>
+        <v>0.0008089620298610983</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2152455409236325</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.741179090515615</v>
+        <v>1.362170578803131</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1970527058701919</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.329570281441363</v>
       </c>
       <c r="N24">
-        <v>5.282092880734467</v>
+        <v>1.017970508788991</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.05108692275823</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.302436730679176</v>
+        <v>1.325835086033976</v>
       </c>
       <c r="C25">
-        <v>2.249565734067119</v>
+        <v>0.1218751510104426</v>
       </c>
       <c r="D25">
-        <v>0.6447590518174593</v>
+        <v>0.2312953730556018</v>
       </c>
       <c r="E25">
-        <v>0.2902767537017183</v>
+        <v>0.051833240654517</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007888435731537284</v>
+        <v>0.0008168146900659941</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1737926196967052</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.183480738122782</v>
+        <v>1.110971195498649</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1682850562004603</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2724378620689798</v>
       </c>
       <c r="N25">
-        <v>4.675037635947831</v>
+        <v>1.101411916524587</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.859872843684428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.115128751909651</v>
+        <v>0.7573912063605235</v>
       </c>
       <c r="C2">
-        <v>0.1155085684793704</v>
+        <v>0.1350596674196183</v>
       </c>
       <c r="D2">
-        <v>0.1930244032202069</v>
+        <v>0.07766267278526584</v>
       </c>
       <c r="E2">
-        <v>0.05034384881750675</v>
+        <v>0.1114702786803434</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008228610019471773</v>
+        <v>0.002503515525458773</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9281152953475384</v>
+        <v>0.3964512192575569</v>
       </c>
       <c r="L2">
-        <v>0.1477850708109898</v>
+        <v>0.1923488513829525</v>
       </c>
       <c r="M2">
-        <v>0.2311927989761351</v>
+        <v>0.1964889248670012</v>
       </c>
       <c r="N2">
-        <v>1.167711294797826</v>
+        <v>2.414080146706652</v>
       </c>
       <c r="O2">
-        <v>2.736600243467819</v>
+        <v>5.077439800590327</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9739611874178706</v>
+        <v>0.7215847792689374</v>
       </c>
       <c r="C3">
-        <v>0.1111870968064821</v>
+        <v>0.1334551369442636</v>
       </c>
       <c r="D3">
-        <v>0.1674534882794632</v>
+        <v>0.07057659360374657</v>
       </c>
       <c r="E3">
-        <v>0.04945950110100483</v>
+        <v>0.1117850815743875</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008271329032648343</v>
+        <v>0.002506345585331836</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8051299813038781</v>
+        <v>0.3624179940076431</v>
       </c>
       <c r="L3">
-        <v>0.134254898508857</v>
+        <v>0.1898298979802036</v>
       </c>
       <c r="M3">
-        <v>0.2036548898717285</v>
+        <v>0.189943701298553</v>
       </c>
       <c r="N3">
-        <v>1.21549716037169</v>
+        <v>2.434714652742024</v>
       </c>
       <c r="O3">
-        <v>2.662781072248549</v>
+        <v>5.087404786434831</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8879494479159291</v>
+        <v>0.6999482295969699</v>
       </c>
       <c r="C4">
-        <v>0.1085270033960555</v>
+        <v>0.1324539530591196</v>
       </c>
       <c r="D4">
-        <v>0.1519009188358638</v>
+        <v>0.06626029019173529</v>
       </c>
       <c r="E4">
-        <v>0.04897487468381279</v>
+        <v>0.1120163324784844</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008298446880612154</v>
+        <v>0.002508177253422235</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7299667219297419</v>
+        <v>0.3416498643481702</v>
       </c>
       <c r="L4">
-        <v>0.1261073642071224</v>
+        <v>0.1883750849257737</v>
       </c>
       <c r="M4">
-        <v>0.1869211495810532</v>
+        <v>0.1860203510491552</v>
       </c>
       <c r="N4">
-        <v>1.24619082309367</v>
+        <v>2.448069087572897</v>
       </c>
       <c r="O4">
-        <v>2.621885196208694</v>
+        <v>5.095807171551911</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8530475791076242</v>
+        <v>0.6912193450832262</v>
       </c>
       <c r="C5">
-        <v>0.1074408652301244</v>
+        <v>0.1320419454194095</v>
       </c>
       <c r="D5">
-        <v>0.1455959156412803</v>
+        <v>0.06451005918691521</v>
       </c>
       <c r="E5">
-        <v>0.04879160209263844</v>
+        <v>0.1121201318774201</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008309724933655082</v>
+        <v>0.002508947380574696</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6994099320388756</v>
+        <v>0.3332193132867474</v>
       </c>
       <c r="L5">
-        <v>0.1228248212399592</v>
+        <v>0.1878053835403364</v>
       </c>
       <c r="M5">
-        <v>0.1801418848231791</v>
+        <v>0.1844456522146345</v>
       </c>
       <c r="N5">
-        <v>1.259031094603834</v>
+        <v>2.453683337322747</v>
       </c>
       <c r="O5">
-        <v>2.606282483627638</v>
+        <v>5.099805781788177</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8472605962162731</v>
+        <v>0.6897752611117767</v>
       </c>
       <c r="C6">
-        <v>0.1072603717968619</v>
+        <v>0.1319732893969388</v>
       </c>
       <c r="D6">
-        <v>0.1445508298001954</v>
+        <v>0.06421996006685049</v>
       </c>
       <c r="E6">
-        <v>0.04876201542285052</v>
+        <v>0.1121379457651024</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008311611487495963</v>
+        <v>0.002509076693655526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6943399712274498</v>
+        <v>0.3318214075657266</v>
       </c>
       <c r="L6">
-        <v>0.1222819574940459</v>
+        <v>0.1877121846638872</v>
       </c>
       <c r="M6">
-        <v>0.1790184868994977</v>
+        <v>0.1841856330430183</v>
       </c>
       <c r="N6">
-        <v>1.261183063439091</v>
+        <v>2.454625980840262</v>
       </c>
       <c r="O6">
-        <v>2.603754404209468</v>
+        <v>5.10050445889658</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8874781714785058</v>
+        <v>0.6998301510976148</v>
       </c>
       <c r="C7">
-        <v>0.1085123645434081</v>
+        <v>0.1324484128386061</v>
       </c>
       <c r="D7">
-        <v>0.1518157602799022</v>
+        <v>0.06623665074405949</v>
       </c>
       <c r="E7">
-        <v>0.0489723460352387</v>
+        <v>0.1120176936110848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008298598055099249</v>
+        <v>0.002508187543580809</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7295543469249139</v>
+        <v>0.3415360344164355</v>
       </c>
       <c r="L7">
-        <v>0.1260629456104567</v>
+        <v>0.1883673079412418</v>
       </c>
       <c r="M7">
-        <v>0.1868295658059616</v>
+        <v>0.1859990164066225</v>
       </c>
       <c r="N7">
-        <v>1.246362655865315</v>
+        <v>2.448144106017477</v>
       </c>
       <c r="O7">
-        <v>2.621670535412392</v>
+        <v>5.095858771432205</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.066304344283679</v>
+        <v>0.7449730509968902</v>
       </c>
       <c r="C8">
-        <v>0.1140196352626788</v>
+        <v>0.1345097479094832</v>
       </c>
       <c r="D8">
-        <v>0.1841740705155672</v>
+        <v>0.07521221556714863</v>
       </c>
       <c r="E8">
-        <v>0.05002652761577409</v>
+        <v>0.1115709542200083</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008243157632576432</v>
+        <v>0.002504471862995376</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8856278167518212</v>
+        <v>0.3846901057019068</v>
       </c>
       <c r="L8">
-        <v>0.1430850388383504</v>
+        <v>0.1914612872642323</v>
       </c>
       <c r="M8">
-        <v>0.2216589700999414</v>
+        <v>0.1942123789022396</v>
       </c>
       <c r="N8">
-        <v>1.183902209057983</v>
+        <v>2.421052814905053</v>
       </c>
       <c r="O8">
-        <v>2.710196451239852</v>
+        <v>5.080401873549533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.423179337580166</v>
+        <v>0.836248852546305</v>
       </c>
       <c r="C9">
-        <v>0.1247884257585596</v>
+        <v>0.1384250343431148</v>
       </c>
       <c r="D9">
-        <v>0.2490178264978908</v>
+        <v>0.09308845118829367</v>
       </c>
       <c r="E9">
-        <v>0.05257890480434568</v>
+        <v>0.1109953933686754</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008141297248200042</v>
+        <v>0.002497928043367631</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.195209362538236</v>
+        <v>0.4703234439374171</v>
       </c>
       <c r="L9">
-        <v>0.1778609044287194</v>
+        <v>0.1982553803847722</v>
       </c>
       <c r="M9">
-        <v>0.2915416831896636</v>
+        <v>0.2110727682288527</v>
       </c>
       <c r="N9">
-        <v>1.072524233336367</v>
+        <v>2.373358585190935</v>
       </c>
       <c r="O9">
-        <v>2.921393693672627</v>
+        <v>5.068204426831329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.690531058155699</v>
+        <v>0.9049717218957483</v>
       </c>
       <c r="C10">
-        <v>0.1327154327168216</v>
+        <v>0.1412243287063646</v>
       </c>
       <c r="D10">
-        <v>0.2978251563160796</v>
+        <v>0.1063923782993328</v>
       </c>
       <c r="E10">
-        <v>0.05478244845010316</v>
+        <v>0.1107548432701773</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008070361742505953</v>
+        <v>0.002493568498157012</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.425927072420023</v>
+        <v>0.5338454047399068</v>
       </c>
       <c r="L10">
-        <v>0.2044492414451184</v>
+        <v>0.2036883630949404</v>
       </c>
       <c r="M10">
-        <v>0.3441443481979221</v>
+        <v>0.2239168501303297</v>
       </c>
       <c r="N10">
-        <v>0.9980110778505775</v>
+        <v>2.341625729545889</v>
       </c>
       <c r="O10">
-        <v>3.103124960647619</v>
+        <v>5.070281586121155</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.813606078744613</v>
+        <v>0.9365939610424334</v>
       </c>
       <c r="C11">
-        <v>0.136333295150834</v>
+        <v>0.1424810677905484</v>
       </c>
       <c r="D11">
-        <v>0.3203584028659492</v>
+        <v>0.1124822568681338</v>
       </c>
       <c r="E11">
-        <v>0.05586390474205949</v>
+        <v>0.1106848194277958</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008038872720332727</v>
+        <v>0.002491681589262099</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.531865570799937</v>
+        <v>0.5628738184286703</v>
       </c>
       <c r="L11">
-        <v>0.2168152596124742</v>
+        <v>0.2062554898103599</v>
       </c>
       <c r="M11">
-        <v>0.3684188906901511</v>
+        <v>0.2298586112214096</v>
       </c>
       <c r="N11">
-        <v>0.9658324363368322</v>
+        <v>2.327907279343151</v>
       </c>
       <c r="O11">
-        <v>3.192439829228618</v>
+        <v>5.073623190565172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.860449880035532</v>
+        <v>0.9486198382041948</v>
       </c>
       <c r="C12">
-        <v>0.1377057397586299</v>
+        <v>0.1429545624220552</v>
       </c>
       <c r="D12">
-        <v>0.3289454355025327</v>
+        <v>0.114793795482683</v>
       </c>
       <c r="E12">
-        <v>0.05628547663824079</v>
+        <v>0.1106639535110094</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008027055047616306</v>
+        <v>0.002490980836719899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.572147045789904</v>
+        <v>0.5738848437752893</v>
       </c>
       <c r="L12">
-        <v>0.2215408662320186</v>
+        <v>0.2072413031869758</v>
       </c>
       <c r="M12">
-        <v>0.3776669388329523</v>
+        <v>0.2321227489364972</v>
       </c>
       <c r="N12">
-        <v>0.9539062306884958</v>
+        <v>2.322815552042833</v>
       </c>
       <c r="O12">
-        <v>3.227294924041729</v>
+        <v>5.075233080810392</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.850350165946452</v>
+        <v>0.9460275806774519</v>
       </c>
       <c r="C13">
-        <v>0.1374100383140373</v>
+        <v>0.1428526939715908</v>
       </c>
       <c r="D13">
-        <v>0.3270935436344331</v>
+        <v>0.1142957227780244</v>
       </c>
       <c r="E13">
-        <v>0.05619413643133697</v>
+        <v>0.1106681962958351</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008029595550567276</v>
+        <v>0.002491131144698487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.563463985268669</v>
+        <v>0.5715126014871998</v>
       </c>
       <c r="L13">
-        <v>0.2205211505085884</v>
+        <v>0.20702838226849</v>
       </c>
       <c r="M13">
-        <v>0.3756726214053145</v>
+        <v>0.231634499947539</v>
       </c>
       <c r="N13">
-        <v>0.956463023755127</v>
+        <v>2.3239075580668</v>
       </c>
       <c r="O13">
-        <v>3.219740985118221</v>
+        <v>5.074871042814038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.817455005358227</v>
+        <v>0.9375823136526265</v>
       </c>
       <c r="C14">
-        <v>0.1364461536509722</v>
+        <v>0.1425200707250482</v>
       </c>
       <c r="D14">
-        <v>0.3210637375405412</v>
+        <v>0.1126723196983477</v>
       </c>
       <c r="E14">
-        <v>0.05589834219840917</v>
+        <v>0.1106829896190984</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008037898371144846</v>
+        <v>0.002491623662258421</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.53517610746519</v>
+        <v>0.5637793316152795</v>
       </c>
       <c r="L14">
-        <v>0.2172031556133618</v>
+        <v>0.2063363190476935</v>
       </c>
       <c r="M14">
-        <v>0.3691785778962711</v>
+        <v>0.2300446007655381</v>
       </c>
       <c r="N14">
-        <v>0.9648459937430118</v>
+        <v>2.327486312253036</v>
       </c>
       <c r="O14">
-        <v>3.195286198146079</v>
+        <v>5.073748733788818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.797337647400298</v>
+        <v>0.9324159986799714</v>
       </c>
       <c r="C15">
-        <v>0.1358560871048056</v>
+        <v>0.1423160159341208</v>
       </c>
       <c r="D15">
-        <v>0.3173775686961307</v>
+        <v>0.1116786457720877</v>
       </c>
       <c r="E15">
-        <v>0.05571874964796208</v>
+        <v>0.1106927863686913</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008042997790712387</v>
+        <v>0.002491927136015643</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.517871160572554</v>
+        <v>0.5590448908706662</v>
       </c>
       <c r="L15">
-        <v>0.2151764911379956</v>
+        <v>0.2059141926463468</v>
       </c>
       <c r="M15">
-        <v>0.3652082465610462</v>
+        <v>0.2290725776074893</v>
       </c>
       <c r="N15">
-        <v>0.9700149293415308</v>
+        <v>2.32969183752008</v>
       </c>
       <c r="O15">
-        <v>3.180443942530417</v>
+        <v>5.073106146552078</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.682519505215282</v>
+        <v>0.9029123305586779</v>
       </c>
       <c r="C16">
-        <v>0.1324792964394561</v>
+        <v>0.1411418616883822</v>
       </c>
       <c r="D16">
-        <v>0.2963597647207621</v>
+        <v>0.1059951513391155</v>
       </c>
       <c r="E16">
-        <v>0.05471342059474793</v>
+        <v>0.1107602110597821</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008072434846729421</v>
+        <v>0.002493693743930583</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.419025498932484</v>
+        <v>0.5319509524467492</v>
       </c>
       <c r="L16">
-        <v>0.2036468716568436</v>
+        <v>0.203522515137692</v>
       </c>
       <c r="M16">
-        <v>0.3425654138992158</v>
+        <v>0.2235305238336878</v>
       </c>
       <c r="N16">
-        <v>1.000149610391588</v>
+        <v>2.342536694346862</v>
       </c>
       <c r="O16">
-        <v>3.097428265083892</v>
+        <v>5.070111419619252</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612474792585886</v>
+        <v>0.8849045806162508</v>
       </c>
       <c r="C17">
-        <v>0.1304112780534865</v>
+        <v>0.140417280156349</v>
       </c>
       <c r="D17">
-        <v>0.2835552670243544</v>
+        <v>0.1025182005220984</v>
       </c>
       <c r="E17">
-        <v>0.05411740092927175</v>
+        <v>0.1108116550184466</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008090689398990367</v>
+        <v>0.002494802111434818</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.358654962735017</v>
+        <v>0.5153632255118055</v>
       </c>
       <c r="L17">
-        <v>0.1966458937409641</v>
+        <v>0.2020797545631865</v>
       </c>
       <c r="M17">
-        <v>0.3287674494587094</v>
+        <v>0.2201559165772622</v>
       </c>
       <c r="N17">
-        <v>1.019084575001031</v>
+        <v>2.350600269986018</v>
       </c>
       <c r="O17">
-        <v>3.048256342060682</v>
+        <v>5.068887998993262</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.57232207388725</v>
+        <v>0.8745809024402149</v>
       </c>
       <c r="C18">
-        <v>0.1292228737776995</v>
+        <v>0.1399989510403259</v>
       </c>
       <c r="D18">
-        <v>0.2762211459989317</v>
+        <v>0.1005219141351148</v>
       </c>
       <c r="E18">
-        <v>0.05378198370836529</v>
+        <v>0.1108449540065202</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008101262698698153</v>
+        <v>0.002495448680500527</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.32402252962487</v>
+        <v>0.5058348466884866</v>
       </c>
       <c r="L18">
-        <v>0.1926443595519629</v>
+        <v>0.201258921755894</v>
       </c>
       <c r="M18">
-        <v>0.3208633348872425</v>
+        <v>0.2182242491007855</v>
       </c>
       <c r="N18">
-        <v>1.030136371797234</v>
+        <v>2.355305708211418</v>
       </c>
       <c r="O18">
-        <v>3.020594350249269</v>
+        <v>5.068409916480562</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558749425594698</v>
+        <v>0.8710913213476488</v>
       </c>
       <c r="C19">
-        <v>0.1288206620618908</v>
+        <v>0.1398570427427046</v>
       </c>
       <c r="D19">
-        <v>0.2737430142878878</v>
+        <v>0.099846618230643</v>
       </c>
       <c r="E19">
-        <v>0.05366966774546533</v>
+        <v>0.110856866106511</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008104855470578904</v>
+        <v>0.002495669156436161</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.312311545897018</v>
+        <v>0.5026108500007922</v>
       </c>
       <c r="L19">
-        <v>0.1912937295731609</v>
+        <v>0.2009825501210258</v>
       </c>
       <c r="M19">
-        <v>0.3181924723351415</v>
+        <v>0.2175718230987229</v>
       </c>
       <c r="N19">
-        <v>1.033905600898002</v>
+        <v>2.356910477496157</v>
       </c>
       <c r="O19">
-        <v>3.011332745070291</v>
+        <v>5.068286796857905</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.619916983615241</v>
+        <v>0.8868180312846334</v>
       </c>
       <c r="C20">
-        <v>0.1306313067652383</v>
+        <v>0.1404945755356408</v>
       </c>
       <c r="D20">
-        <v>0.2849151049774434</v>
+        <v>0.1028879591057859</v>
       </c>
       <c r="E20">
-        <v>0.05418007784242107</v>
+        <v>0.1108057948858168</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008088738576418967</v>
+        <v>0.002494683185953727</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.365071916836001</v>
+        <v>0.5171277323107688</v>
       </c>
       <c r="L20">
-        <v>0.1973885197468235</v>
+        <v>0.2022324073067239</v>
       </c>
       <c r="M20">
-        <v>0.3302329000036224</v>
+        <v>0.2205141857174411</v>
       </c>
       <c r="N20">
-        <v>1.01705217751072</v>
+        <v>2.349734904016628</v>
       </c>
       <c r="O20">
-        <v>3.053426021583988</v>
+        <v>5.068994886843115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.82711041385781</v>
+        <v>0.9400615073523682</v>
       </c>
       <c r="C21">
-        <v>0.136729197537214</v>
+        <v>0.1426178355707748</v>
       </c>
       <c r="D21">
-        <v>0.3228333119159998</v>
+        <v>0.1131490051457007</v>
       </c>
       <c r="E21">
-        <v>0.05598489150969854</v>
+        <v>0.1106784912301588</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008035456786151929</v>
+        <v>0.002491478624358561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.543480273149555</v>
+        <v>0.5660502787989401</v>
       </c>
       <c r="L21">
-        <v>0.2181765352082863</v>
+        <v>0.2065392234575256</v>
       </c>
       <c r="M21">
-        <v>0.3710844700640834</v>
+        <v>0.2305112102592801</v>
       </c>
       <c r="N21">
-        <v>0.9623765777971656</v>
+        <v>2.32643234546326</v>
       </c>
       <c r="O21">
-        <v>3.202440461992524</v>
+        <v>5.074069034741257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.963925222743654</v>
+        <v>0.9751575105671577</v>
       </c>
       <c r="C22">
-        <v>0.1407291286748631</v>
+        <v>0.1439914860110107</v>
       </c>
       <c r="D22">
-        <v>0.3479342999035993</v>
+        <v>0.1198868590244189</v>
       </c>
       <c r="E22">
-        <v>0.05723501520151508</v>
+        <v>0.110628219705692</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008001252160229618</v>
+        <v>0.002489464542836939</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.661053583408005</v>
+        <v>0.5981322007636436</v>
       </c>
       <c r="L22">
-        <v>0.2320145745336646</v>
+        <v>0.2094337952642462</v>
       </c>
       <c r="M22">
-        <v>0.3981118008644913</v>
+        <v>0.2371271080035839</v>
       </c>
       <c r="N22">
-        <v>0.9281597278368352</v>
+        <v>2.311804051123552</v>
       </c>
       <c r="O22">
-        <v>3.305894543754903</v>
+        <v>5.079393211347082</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.890766258017464</v>
+        <v>0.9563989913210946</v>
       </c>
       <c r="C23">
-        <v>0.1385926916285243</v>
+        <v>0.1432596284736576</v>
       </c>
       <c r="D23">
-        <v>0.3345058948507642</v>
+        <v>0.1162878454744316</v>
       </c>
       <c r="E23">
-        <v>0.05656110624252086</v>
+        <v>0.1106520427202788</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008019453209074249</v>
+        <v>0.002490532171169155</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.598205247573361</v>
+        <v>0.5809996996828772</v>
       </c>
       <c r="L23">
-        <v>0.2246045372863961</v>
+        <v>0.2078816222989985</v>
       </c>
       <c r="M23">
-        <v>0.3836545979848083</v>
+        <v>0.2335885858541005</v>
       </c>
       <c r="N23">
-        <v>0.9462788633899351</v>
+        <v>2.31955641297138</v>
       </c>
       <c r="O23">
-        <v>3.250096901866073</v>
+        <v>5.076367919773105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.61655200701469</v>
+        <v>0.8859528691903051</v>
       </c>
       <c r="C24">
-        <v>0.1305318301980165</v>
+        <v>0.1404596357693464</v>
       </c>
       <c r="D24">
-        <v>0.2843002375303456</v>
+        <v>0.1027207829683476</v>
       </c>
       <c r="E24">
-        <v>0.05415171910232708</v>
+        <v>0.1108084326535721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008089620298610983</v>
+        <v>0.002494736923195682</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.362170578803131</v>
+        <v>0.5163299734468012</v>
       </c>
       <c r="L24">
-        <v>0.1970527058701919</v>
+        <v>0.2021633661180005</v>
       </c>
       <c r="M24">
-        <v>0.329570281441363</v>
+        <v>0.2203521859445488</v>
       </c>
       <c r="N24">
-        <v>1.017970508788991</v>
+        <v>2.350125919225981</v>
       </c>
       <c r="O24">
-        <v>3.05108692275823</v>
+        <v>5.06894586109496</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.325835086033976</v>
+        <v>0.8112633326279877</v>
       </c>
       <c r="C25">
-        <v>0.1218751510104426</v>
+        <v>0.1373794250997378</v>
       </c>
       <c r="D25">
-        <v>0.2312953730556018</v>
+        <v>0.08822273510917</v>
       </c>
       <c r="E25">
-        <v>0.051833240654517</v>
+        <v>0.1111190185221513</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008168146900659941</v>
+        <v>0.002499619286660152</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.110971195498649</v>
+        <v>0.4470501883253348</v>
       </c>
       <c r="L25">
-        <v>0.1682850562004603</v>
+        <v>0.1963397660244866</v>
       </c>
       <c r="M25">
-        <v>0.2724378620689798</v>
+        <v>0.2064311650542621</v>
       </c>
       <c r="N25">
-        <v>1.101411916524587</v>
+        <v>2.385679981190123</v>
       </c>
       <c r="O25">
-        <v>2.859872843684428</v>
+        <v>5.069565394598982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7573912063605235</v>
+        <v>1.115128751909651</v>
       </c>
       <c r="C2">
-        <v>0.1350596674196183</v>
+        <v>0.1155085684795978</v>
       </c>
       <c r="D2">
-        <v>0.07766267278526584</v>
+        <v>0.1930244032202637</v>
       </c>
       <c r="E2">
-        <v>0.1114702786803434</v>
+        <v>0.05034384881748899</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002503515525458773</v>
+        <v>0.0008228610019470166</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3964512192575569</v>
+        <v>0.9281152953475384</v>
       </c>
       <c r="L2">
-        <v>0.1923488513829525</v>
+        <v>0.1477850708110395</v>
       </c>
       <c r="M2">
-        <v>0.1964889248670012</v>
+        <v>0.2311927989761351</v>
       </c>
       <c r="N2">
-        <v>2.414080146706652</v>
+        <v>1.167711294797833</v>
       </c>
       <c r="O2">
-        <v>5.077439800590327</v>
+        <v>2.736600243467819</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7215847792689374</v>
+        <v>0.9739611874178991</v>
       </c>
       <c r="C3">
-        <v>0.1334551369442636</v>
+        <v>0.1111870968064821</v>
       </c>
       <c r="D3">
-        <v>0.07057659360374657</v>
+        <v>0.1674534882794063</v>
       </c>
       <c r="E3">
-        <v>0.1117850815743875</v>
+        <v>0.04945950110098707</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002506345585331836</v>
+        <v>0.0008271329032937298</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3624179940076431</v>
+        <v>0.8051299813039066</v>
       </c>
       <c r="L3">
-        <v>0.1898298979802036</v>
+        <v>0.1342548985088783</v>
       </c>
       <c r="M3">
-        <v>0.189943701298553</v>
+        <v>0.2036548898717108</v>
       </c>
       <c r="N3">
-        <v>2.434714652742024</v>
+        <v>1.215497160371623</v>
       </c>
       <c r="O3">
-        <v>5.087404786434831</v>
+        <v>2.662781072248521</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6999482295969699</v>
+        <v>0.8879494479159007</v>
       </c>
       <c r="C4">
-        <v>0.1324539530591196</v>
+        <v>0.1085270033964392</v>
       </c>
       <c r="D4">
-        <v>0.06626029019173529</v>
+        <v>0.1519009188359206</v>
       </c>
       <c r="E4">
-        <v>0.1120163324784844</v>
+        <v>0.048974874683827</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002508177253422235</v>
+        <v>0.0008298446880899285</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3416498643481702</v>
+        <v>0.7299667219297419</v>
       </c>
       <c r="L4">
-        <v>0.1883750849257737</v>
+        <v>0.126107364207158</v>
       </c>
       <c r="M4">
-        <v>0.1860203510491552</v>
+        <v>0.186921149581039</v>
       </c>
       <c r="N4">
-        <v>2.448069087572897</v>
+        <v>1.246190823093656</v>
       </c>
       <c r="O4">
-        <v>5.095807171551911</v>
+        <v>2.621885196208638</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6912193450832262</v>
+        <v>0.8530475791073684</v>
       </c>
       <c r="C5">
-        <v>0.1320419454194095</v>
+        <v>0.1074408652300178</v>
       </c>
       <c r="D5">
-        <v>0.06451005918691521</v>
+        <v>0.1455959156412518</v>
       </c>
       <c r="E5">
-        <v>0.1121201318774201</v>
+        <v>0.04879160209263844</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002508947380574696</v>
+        <v>0.0008309724933338045</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3332193132867474</v>
+        <v>0.6994099320388329</v>
       </c>
       <c r="L5">
-        <v>0.1878053835403364</v>
+        <v>0.1228248212400089</v>
       </c>
       <c r="M5">
-        <v>0.1844456522146345</v>
+        <v>0.1801418848231897</v>
       </c>
       <c r="N5">
-        <v>2.453683337322747</v>
+        <v>1.259031094603902</v>
       </c>
       <c r="O5">
-        <v>5.099805781788177</v>
+        <v>2.606282483627666</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6897752611117767</v>
+        <v>0.8472605962164153</v>
       </c>
       <c r="C6">
-        <v>0.1319732893969388</v>
+        <v>0.1072603717968619</v>
       </c>
       <c r="D6">
-        <v>0.06421996006685049</v>
+        <v>0.1445508298002949</v>
       </c>
       <c r="E6">
-        <v>0.1121379457651024</v>
+        <v>0.04876201542287539</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002509076693655526</v>
+        <v>0.0008311611488031386</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3318214075657266</v>
+        <v>0.6943399712274783</v>
       </c>
       <c r="L6">
-        <v>0.1877121846638872</v>
+        <v>0.1222819574940601</v>
       </c>
       <c r="M6">
-        <v>0.1841856330430183</v>
+        <v>0.1790184868995013</v>
       </c>
       <c r="N6">
-        <v>2.454625980840262</v>
+        <v>1.261183063439113</v>
       </c>
       <c r="O6">
-        <v>5.10050445889658</v>
+        <v>2.60375440420944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6998301510976148</v>
+        <v>0.8874781714785058</v>
       </c>
       <c r="C7">
-        <v>0.1324484128386061</v>
+        <v>0.1085123645426904</v>
       </c>
       <c r="D7">
-        <v>0.06623665074405949</v>
+        <v>0.1518157602799164</v>
       </c>
       <c r="E7">
-        <v>0.1120176936110848</v>
+        <v>0.04897234603519607</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002508187543580809</v>
+        <v>0.0008298598055104338</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3415360344164355</v>
+        <v>0.7295543469249708</v>
       </c>
       <c r="L7">
-        <v>0.1883673079412418</v>
+        <v>0.1260629456104567</v>
       </c>
       <c r="M7">
-        <v>0.1859990164066225</v>
+        <v>0.1868295658059544</v>
       </c>
       <c r="N7">
-        <v>2.448144106017477</v>
+        <v>1.246362655865283</v>
       </c>
       <c r="O7">
-        <v>5.095858771432205</v>
+        <v>2.621670535412363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7449730509968902</v>
+        <v>1.066304344283623</v>
       </c>
       <c r="C8">
-        <v>0.1345097479094832</v>
+        <v>0.1140196352628138</v>
       </c>
       <c r="D8">
-        <v>0.07521221556714863</v>
+        <v>0.1841740705157804</v>
       </c>
       <c r="E8">
-        <v>0.1115709542200083</v>
+        <v>0.05002652761576165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002504471862995376</v>
+        <v>0.0008243157632585224</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3846901057019068</v>
+        <v>0.8856278167517928</v>
       </c>
       <c r="L8">
-        <v>0.1914612872642323</v>
+        <v>0.1430850388383078</v>
       </c>
       <c r="M8">
-        <v>0.1942123789022396</v>
+        <v>0.2216589700999556</v>
       </c>
       <c r="N8">
-        <v>2.421052814905053</v>
+        <v>1.183902209057972</v>
       </c>
       <c r="O8">
-        <v>5.080401873549533</v>
+        <v>2.710196451239909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.836248852546305</v>
+        <v>1.423179337580279</v>
       </c>
       <c r="C9">
-        <v>0.1384250343431148</v>
+        <v>0.1247884257586804</v>
       </c>
       <c r="D9">
-        <v>0.09308845118829367</v>
+        <v>0.249017826497905</v>
       </c>
       <c r="E9">
-        <v>0.1109953933686754</v>
+        <v>0.05257890480434746</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002497928043367631</v>
+        <v>0.0008141297248506465</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4703234439374171</v>
+        <v>1.195209362538293</v>
       </c>
       <c r="L9">
-        <v>0.1982553803847722</v>
+        <v>0.1778609044287194</v>
       </c>
       <c r="M9">
-        <v>0.2110727682288527</v>
+        <v>0.2915416831896636</v>
       </c>
       <c r="N9">
-        <v>2.373358585190935</v>
+        <v>1.072524233336367</v>
       </c>
       <c r="O9">
-        <v>5.068204426831329</v>
+        <v>2.921393693672684</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9049717218957483</v>
+        <v>1.690531058155671</v>
       </c>
       <c r="C10">
-        <v>0.1412243287063646</v>
+        <v>0.1327154327167008</v>
       </c>
       <c r="D10">
-        <v>0.1063923782993328</v>
+        <v>0.2978251563160086</v>
       </c>
       <c r="E10">
-        <v>0.1107548432701773</v>
+        <v>0.05478244845015467</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002493568498157012</v>
+        <v>0.0008070361743449698</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5338454047399068</v>
+        <v>1.425927072420052</v>
       </c>
       <c r="L10">
-        <v>0.2036883630949404</v>
+        <v>0.2044492414451327</v>
       </c>
       <c r="M10">
-        <v>0.2239168501303297</v>
+        <v>0.3441443481979007</v>
       </c>
       <c r="N10">
-        <v>2.341625729545889</v>
+        <v>0.9980110778505775</v>
       </c>
       <c r="O10">
-        <v>5.070281586121155</v>
+        <v>3.103124960647676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9365939610424334</v>
+        <v>1.813606078744698</v>
       </c>
       <c r="C11">
-        <v>0.1424810677905484</v>
+        <v>0.1363332951509477</v>
       </c>
       <c r="D11">
-        <v>0.1124822568681338</v>
+        <v>0.3203584028659208</v>
       </c>
       <c r="E11">
-        <v>0.1106848194277958</v>
+        <v>0.0558639047420435</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002491681589262099</v>
+        <v>0.0008038872720043263</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5628738184286703</v>
+        <v>1.531865570799852</v>
       </c>
       <c r="L11">
-        <v>0.2062554898103599</v>
+        <v>0.2168152596124742</v>
       </c>
       <c r="M11">
-        <v>0.2298586112214096</v>
+        <v>0.3684188906901582</v>
       </c>
       <c r="N11">
-        <v>2.327907279343151</v>
+        <v>0.9658324363368109</v>
       </c>
       <c r="O11">
-        <v>5.073623190565172</v>
+        <v>3.192439829228533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9486198382041948</v>
+        <v>1.860449880035645</v>
       </c>
       <c r="C12">
-        <v>0.1429545624220552</v>
+        <v>0.1377057397586299</v>
       </c>
       <c r="D12">
-        <v>0.114793795482683</v>
+        <v>0.3289454355025754</v>
       </c>
       <c r="E12">
-        <v>0.1106639535110094</v>
+        <v>0.05628547663826566</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002490980836719899</v>
+        <v>0.0008027055047648111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5738848437752893</v>
+        <v>1.572147045789848</v>
       </c>
       <c r="L12">
-        <v>0.2072413031869758</v>
+        <v>0.2215408662320328</v>
       </c>
       <c r="M12">
-        <v>0.2321227489364972</v>
+        <v>0.3776669388329452</v>
       </c>
       <c r="N12">
-        <v>2.322815552042833</v>
+        <v>0.9539062306884958</v>
       </c>
       <c r="O12">
-        <v>5.075233080810392</v>
+        <v>3.227294924041729</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9460275806774519</v>
+        <v>1.850350165946566</v>
       </c>
       <c r="C13">
-        <v>0.1428526939715908</v>
+        <v>0.1374100383140373</v>
       </c>
       <c r="D13">
-        <v>0.1142957227780244</v>
+        <v>0.3270935436344331</v>
       </c>
       <c r="E13">
-        <v>0.1106681962958351</v>
+        <v>0.05619413643133697</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002491131144698487</v>
+        <v>0.0008029595549897034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5715126014871998</v>
+        <v>1.563463985268697</v>
       </c>
       <c r="L13">
-        <v>0.20702838226849</v>
+        <v>0.22052115050856</v>
       </c>
       <c r="M13">
-        <v>0.231634499947539</v>
+        <v>0.3756726214053288</v>
       </c>
       <c r="N13">
-        <v>2.3239075580668</v>
+        <v>0.9564630237550631</v>
       </c>
       <c r="O13">
-        <v>5.074871042814038</v>
+        <v>3.219740985118221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9375823136526265</v>
+        <v>1.817455005358141</v>
       </c>
       <c r="C14">
-        <v>0.1425200707250482</v>
+        <v>0.1364461536508514</v>
       </c>
       <c r="D14">
-        <v>0.1126723196983477</v>
+        <v>0.3210637375404275</v>
       </c>
       <c r="E14">
-        <v>0.1106829896190984</v>
+        <v>0.0558983421983914</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002491623662258421</v>
+        <v>0.0008037898371147409</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5637793316152795</v>
+        <v>1.535176107465276</v>
       </c>
       <c r="L14">
-        <v>0.2063363190476935</v>
+        <v>0.2172031556133192</v>
       </c>
       <c r="M14">
-        <v>0.2300446007655381</v>
+        <v>0.3691785778962853</v>
       </c>
       <c r="N14">
-        <v>2.327486312253036</v>
+        <v>0.9648459937430047</v>
       </c>
       <c r="O14">
-        <v>5.073748733788818</v>
+        <v>3.195286198146164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9324159986799714</v>
+        <v>1.797337647400298</v>
       </c>
       <c r="C15">
-        <v>0.1423160159341208</v>
+        <v>0.1358560871047914</v>
       </c>
       <c r="D15">
-        <v>0.1116786457720877</v>
+        <v>0.3173775686961307</v>
       </c>
       <c r="E15">
-        <v>0.1106927863686913</v>
+        <v>0.05571874964796208</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002491927136015643</v>
+        <v>0.00080429977907015</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5590448908706662</v>
+        <v>1.517871160572554</v>
       </c>
       <c r="L15">
-        <v>0.2059141926463468</v>
+        <v>0.2151764911379388</v>
       </c>
       <c r="M15">
-        <v>0.2290725776074893</v>
+        <v>0.3652082465610391</v>
       </c>
       <c r="N15">
-        <v>2.32969183752008</v>
+        <v>0.9700149293415308</v>
       </c>
       <c r="O15">
-        <v>5.073106146552078</v>
+        <v>3.180443942530388</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9029123305586779</v>
+        <v>1.682519505215311</v>
       </c>
       <c r="C16">
-        <v>0.1411418616883822</v>
+        <v>0.1324792964395556</v>
       </c>
       <c r="D16">
-        <v>0.1059951513391155</v>
+        <v>0.2963597647208047</v>
       </c>
       <c r="E16">
-        <v>0.1107602110597821</v>
+        <v>0.05471342059474793</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002493693743930583</v>
+        <v>0.0008072434846723146</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5319509524467492</v>
+        <v>1.419025498932513</v>
       </c>
       <c r="L16">
-        <v>0.203522515137692</v>
+        <v>0.203646871656872</v>
       </c>
       <c r="M16">
-        <v>0.2235305238336878</v>
+        <v>0.3425654138992087</v>
       </c>
       <c r="N16">
-        <v>2.342536694346862</v>
+        <v>1.000149610391588</v>
       </c>
       <c r="O16">
-        <v>5.070111419619252</v>
+        <v>3.097428265083892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8849045806162508</v>
+        <v>1.6124747925858</v>
       </c>
       <c r="C17">
-        <v>0.140417280156349</v>
+        <v>0.1304112780534652</v>
       </c>
       <c r="D17">
-        <v>0.1025182005220984</v>
+        <v>0.2835552670242123</v>
       </c>
       <c r="E17">
-        <v>0.1108116550184466</v>
+        <v>0.05411740092926998</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002494802111434818</v>
+        <v>0.0008090689399292348</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5153632255118055</v>
+        <v>1.358654962734988</v>
       </c>
       <c r="L17">
-        <v>0.2020797545631865</v>
+        <v>0.1966458937409783</v>
       </c>
       <c r="M17">
-        <v>0.2201559165772622</v>
+        <v>0.3287674494587023</v>
       </c>
       <c r="N17">
-        <v>2.350600269986018</v>
+        <v>1.019084575001031</v>
       </c>
       <c r="O17">
-        <v>5.068887998993262</v>
+        <v>3.048256342060682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8745809024402149</v>
+        <v>1.572322073887307</v>
       </c>
       <c r="C18">
-        <v>0.1399989510403259</v>
+        <v>0.1292228737778132</v>
       </c>
       <c r="D18">
-        <v>0.1005219141351148</v>
+        <v>0.2762211459992727</v>
       </c>
       <c r="E18">
-        <v>0.1108449540065202</v>
+        <v>0.05378198370838838</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002495448680500527</v>
+        <v>0.000810126269870188</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5058348466884866</v>
+        <v>1.324022529624784</v>
       </c>
       <c r="L18">
-        <v>0.201258921755894</v>
+        <v>0.1926443595519061</v>
       </c>
       <c r="M18">
-        <v>0.2182242491007855</v>
+        <v>0.3208633348872283</v>
       </c>
       <c r="N18">
-        <v>2.355305708211418</v>
+        <v>1.030136371797198</v>
       </c>
       <c r="O18">
-        <v>5.068409916480562</v>
+        <v>3.020594350249297</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8710913213476488</v>
+        <v>1.558749425594669</v>
       </c>
       <c r="C19">
-        <v>0.1398570427427046</v>
+        <v>0.1288206620617842</v>
       </c>
       <c r="D19">
-        <v>0.099846618230643</v>
+        <v>0.2737430142880299</v>
       </c>
       <c r="E19">
-        <v>0.110856866106511</v>
+        <v>0.05366966774546711</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002495669156436161</v>
+        <v>0.0008104855470288386</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5026108500007922</v>
+        <v>1.312311545897103</v>
       </c>
       <c r="L19">
-        <v>0.2009825501210258</v>
+        <v>0.1912937295732178</v>
       </c>
       <c r="M19">
-        <v>0.2175718230987229</v>
+        <v>0.3181924723351344</v>
       </c>
       <c r="N19">
-        <v>2.356910477496157</v>
+        <v>1.033905600898066</v>
       </c>
       <c r="O19">
-        <v>5.068286796857905</v>
+        <v>3.01133274507032</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8868180312846334</v>
+        <v>1.619916983615269</v>
       </c>
       <c r="C20">
-        <v>0.1404945755356408</v>
+        <v>0.1306313067654798</v>
       </c>
       <c r="D20">
-        <v>0.1028879591057859</v>
+        <v>0.2849151049775998</v>
       </c>
       <c r="E20">
-        <v>0.1108057948858168</v>
+        <v>0.05418007784241752</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002494683185953727</v>
+        <v>0.0008088738576122507</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5171277323107688</v>
+        <v>1.365071916835831</v>
       </c>
       <c r="L20">
-        <v>0.2022324073067239</v>
+        <v>0.1973885197468093</v>
       </c>
       <c r="M20">
-        <v>0.2205141857174411</v>
+        <v>0.3302329000036224</v>
       </c>
       <c r="N20">
-        <v>2.349734904016628</v>
+        <v>1.017052177510735</v>
       </c>
       <c r="O20">
-        <v>5.068994886843115</v>
+        <v>3.053426021583903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9400615073523682</v>
+        <v>1.827110413857696</v>
       </c>
       <c r="C21">
-        <v>0.1426178355707748</v>
+        <v>0.1367291975373561</v>
       </c>
       <c r="D21">
-        <v>0.1131490051457007</v>
+        <v>0.3228333119160709</v>
       </c>
       <c r="E21">
-        <v>0.1106784912301588</v>
+        <v>0.05598489150969677</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002491478624358561</v>
+        <v>0.0008035456786490035</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5660502787989401</v>
+        <v>1.54348027314947</v>
       </c>
       <c r="L21">
-        <v>0.2065392234575256</v>
+        <v>0.2181765352083715</v>
       </c>
       <c r="M21">
-        <v>0.2305112102592801</v>
+        <v>0.3710844700640905</v>
       </c>
       <c r="N21">
-        <v>2.32643234546326</v>
+        <v>0.9623765777971585</v>
       </c>
       <c r="O21">
-        <v>5.074069034741257</v>
+        <v>3.202440461992438</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9751575105671577</v>
+        <v>1.963925222743825</v>
       </c>
       <c r="C22">
-        <v>0.1439914860110107</v>
+        <v>0.1407291286749981</v>
       </c>
       <c r="D22">
-        <v>0.1198868590244189</v>
+        <v>0.3479342999036135</v>
       </c>
       <c r="E22">
-        <v>0.110628219705692</v>
+        <v>0.05723501520147956</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002489464542836939</v>
+        <v>0.0008001252160225514</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5981322007636436</v>
+        <v>1.661053583408034</v>
       </c>
       <c r="L22">
-        <v>0.2094337952642462</v>
+        <v>0.2320145745336504</v>
       </c>
       <c r="M22">
-        <v>0.2371271080035839</v>
+        <v>0.3981118008644842</v>
       </c>
       <c r="N22">
-        <v>2.311804051123552</v>
+        <v>0.9281597278368352</v>
       </c>
       <c r="O22">
-        <v>5.079393211347082</v>
+        <v>3.305894543754846</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9563989913210946</v>
+        <v>1.890766258017493</v>
       </c>
       <c r="C23">
-        <v>0.1432596284736576</v>
+        <v>0.1385926916285172</v>
       </c>
       <c r="D23">
-        <v>0.1162878454744316</v>
+        <v>0.3345058948508921</v>
       </c>
       <c r="E23">
-        <v>0.1106520427202788</v>
+        <v>0.05656110624252442</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002490532171169155</v>
+        <v>0.0008019453208751251</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5809996996828772</v>
+        <v>1.598205247573418</v>
       </c>
       <c r="L23">
-        <v>0.2078816222989985</v>
+        <v>0.2246045372863392</v>
       </c>
       <c r="M23">
-        <v>0.2335885858541005</v>
+        <v>0.3836545979848154</v>
       </c>
       <c r="N23">
-        <v>2.31955641297138</v>
+        <v>0.9462788633898924</v>
       </c>
       <c r="O23">
-        <v>5.076367919773105</v>
+        <v>3.250096901866101</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8859528691903051</v>
+        <v>1.616552007014633</v>
       </c>
       <c r="C24">
-        <v>0.1404596357693464</v>
+        <v>0.1305318301981231</v>
       </c>
       <c r="D24">
-        <v>0.1027207829683476</v>
+        <v>0.2843002375304593</v>
       </c>
       <c r="E24">
-        <v>0.1108084326535721</v>
+        <v>0.05415171910233774</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002494736923195682</v>
+        <v>0.0008089620298250497</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5163299734468012</v>
+        <v>1.362170578803159</v>
       </c>
       <c r="L24">
-        <v>0.2021633661180005</v>
+        <v>0.1970527058701919</v>
       </c>
       <c r="M24">
-        <v>0.2203521859445488</v>
+        <v>0.3295702814413559</v>
       </c>
       <c r="N24">
-        <v>2.350125919225981</v>
+        <v>1.017970508788984</v>
       </c>
       <c r="O24">
-        <v>5.06894586109496</v>
+        <v>3.051086922758259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8112633326279877</v>
+        <v>1.32583508603409</v>
       </c>
       <c r="C25">
-        <v>0.1373794250997378</v>
+        <v>0.121875151010677</v>
       </c>
       <c r="D25">
-        <v>0.08822273510917</v>
+        <v>0.2312953730556728</v>
       </c>
       <c r="E25">
-        <v>0.1111190185221513</v>
+        <v>0.051833240654517</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002499619286660152</v>
+        <v>0.0008168146901250444</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4470501883253348</v>
+        <v>1.110971195498564</v>
       </c>
       <c r="L25">
-        <v>0.1963397660244866</v>
+        <v>0.1682850562004887</v>
       </c>
       <c r="M25">
-        <v>0.2064311650542621</v>
+        <v>0.2724378620689869</v>
       </c>
       <c r="N25">
-        <v>2.385679981190123</v>
+        <v>1.101411916524601</v>
       </c>
       <c r="O25">
-        <v>5.069565394598982</v>
+        <v>2.859872843684371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.115128751909651</v>
+        <v>1.173295406862366</v>
       </c>
       <c r="C2">
-        <v>0.1155085684795978</v>
+        <v>0.3333364803263805</v>
       </c>
       <c r="D2">
-        <v>0.1930244032202637</v>
+        <v>0.5560191048708418</v>
       </c>
       <c r="E2">
-        <v>0.05034384881748899</v>
+        <v>0.2503049528380359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008228610019470166</v>
+        <v>1.229250371009016</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006380724082317712</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005480518870245366</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8126581438062033</v>
       </c>
       <c r="K2">
-        <v>0.9281152953475384</v>
+        <v>0.7277314721008139</v>
       </c>
       <c r="L2">
-        <v>0.1477850708110395</v>
+        <v>0.1494165370208975</v>
       </c>
       <c r="M2">
-        <v>0.2311927989761351</v>
+        <v>1.481790652912707</v>
       </c>
       <c r="N2">
-        <v>1.167711294797833</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.736600243467819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.248581516155106</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9739611874178991</v>
+        <v>1.022138144976509</v>
       </c>
       <c r="C3">
-        <v>0.1111870968064821</v>
+        <v>0.2901954058648073</v>
       </c>
       <c r="D3">
-        <v>0.1674534882794063</v>
+        <v>0.4964313535101326</v>
       </c>
       <c r="E3">
-        <v>0.04945950110098707</v>
+        <v>0.2204832468413045</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008271329032937298</v>
+        <v>1.150728400836698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009633826571109436</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007929037094394964</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7798910134372079</v>
       </c>
       <c r="K3">
-        <v>0.8051299813039066</v>
+        <v>0.6985532726030286</v>
       </c>
       <c r="L3">
-        <v>0.1342548985088783</v>
+        <v>0.1296606021934039</v>
       </c>
       <c r="M3">
-        <v>0.2036548898717108</v>
+        <v>1.29095054615405</v>
       </c>
       <c r="N3">
-        <v>1.215497160371623</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.662781072248521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.27004310044736</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8879494479159007</v>
+        <v>0.9291352470118284</v>
       </c>
       <c r="C4">
-        <v>0.1085270033964392</v>
+        <v>0.2641146474124412</v>
       </c>
       <c r="D4">
-        <v>0.1519009188359206</v>
+        <v>0.4600124426132766</v>
       </c>
       <c r="E4">
-        <v>0.048974874683827</v>
+        <v>0.2022085251910184</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008298446880899285</v>
+        <v>1.102949259586367</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01204843094927174</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009765391525630385</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7600595322546013</v>
       </c>
       <c r="K4">
-        <v>0.7299667219297419</v>
+        <v>0.6807637163158304</v>
       </c>
       <c r="L4">
-        <v>0.126107364207158</v>
+        <v>0.1175996938649035</v>
       </c>
       <c r="M4">
-        <v>0.186921149581039</v>
+        <v>1.174042723771066</v>
       </c>
       <c r="N4">
-        <v>1.246190823093656</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.621885196208638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.283509019485706</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8530475791073684</v>
+        <v>0.8902409911568725</v>
       </c>
       <c r="C5">
-        <v>0.1074408652300178</v>
+        <v>0.2540142552399516</v>
       </c>
       <c r="D5">
-        <v>0.1455959156412518</v>
+        <v>0.4451967542317448</v>
       </c>
       <c r="E5">
-        <v>0.04879160209263844</v>
+        <v>0.1947599181619211</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008309724933338045</v>
+        <v>1.082379814587483</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01313804306987038</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01068024157558023</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7514371223663971</v>
       </c>
       <c r="K5">
-        <v>0.6994099320388329</v>
+        <v>0.6727346081074117</v>
       </c>
       <c r="L5">
-        <v>0.1228248212400089</v>
+        <v>0.1126935174967016</v>
       </c>
       <c r="M5">
-        <v>0.1801418848231897</v>
+        <v>1.126118404993036</v>
       </c>
       <c r="N5">
-        <v>1.259031094603902</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.606282483627666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.288292464737765</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8472605962164153</v>
+        <v>0.8826309249234328</v>
       </c>
       <c r="C6">
-        <v>0.1072603717968619</v>
+        <v>0.2528746806696063</v>
       </c>
       <c r="D6">
-        <v>0.1445508298002949</v>
+        <v>0.4427259614271861</v>
       </c>
       <c r="E6">
-        <v>0.04876201542287539</v>
+        <v>0.1935146849092249</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008311611488031386</v>
+        <v>1.077508429674879</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01333132515449126</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01094998910417999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7492665185206704</v>
       </c>
       <c r="K6">
-        <v>0.6943399712274783</v>
+        <v>0.6704167737138533</v>
       </c>
       <c r="L6">
-        <v>0.1222819574940601</v>
+        <v>0.111873066385499</v>
       </c>
       <c r="M6">
-        <v>0.1790184868995013</v>
+        <v>1.11775456633714</v>
       </c>
       <c r="N6">
-        <v>1.261183063439113</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.60375440420944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.288148228035794</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8874781714785058</v>
+        <v>0.9254632798708258</v>
       </c>
       <c r="C7">
-        <v>0.1085123645426904</v>
+        <v>0.2654339799838397</v>
       </c>
       <c r="D7">
-        <v>0.1518157602799164</v>
+        <v>0.4597780988776208</v>
       </c>
       <c r="E7">
-        <v>0.04897234603519607</v>
+        <v>0.2020844063591412</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008298598055104338</v>
+        <v>1.098677357047791</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01207906185602012</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01006840612527071</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7579147536601738</v>
       </c>
       <c r="K7">
-        <v>0.7295543469249708</v>
+        <v>0.677960743731731</v>
       </c>
       <c r="L7">
-        <v>0.1260629456104567</v>
+        <v>0.1175152510046473</v>
       </c>
       <c r="M7">
-        <v>0.1868295658059544</v>
+        <v>1.1722750236313</v>
       </c>
       <c r="N7">
-        <v>1.246362655865283</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.621670535412363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.28101262078637</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.066304344283623</v>
+        <v>1.116996755999736</v>
       </c>
       <c r="C8">
-        <v>0.1140196352628138</v>
+        <v>0.3203112578587763</v>
       </c>
       <c r="D8">
-        <v>0.1841740705157804</v>
+        <v>0.5353888678312728</v>
       </c>
       <c r="E8">
-        <v>0.05002652761576165</v>
+        <v>0.2399811533320388</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008243157632585224</v>
+        <v>1.196784185969065</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007429307529433715</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006597406790175953</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7986158563789445</v>
       </c>
       <c r="K8">
-        <v>0.8856278167517928</v>
+        <v>0.714076009146666</v>
       </c>
       <c r="L8">
-        <v>0.1430850388383078</v>
+        <v>0.1425624538270824</v>
       </c>
       <c r="M8">
-        <v>0.2216589700999556</v>
+        <v>1.41441569820455</v>
       </c>
       <c r="N8">
-        <v>1.183902209057972</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.710196451239909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.252598248005988</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.423179337580279</v>
+        <v>1.497213613026901</v>
       </c>
       <c r="C9">
-        <v>0.1247884257586804</v>
+        <v>0.4289684804018918</v>
       </c>
       <c r="D9">
-        <v>0.249017826497905</v>
+        <v>0.6853794721611735</v>
       </c>
       <c r="E9">
-        <v>0.05257890480434746</v>
+        <v>0.3147922947554562</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008141297248506465</v>
+        <v>1.400410863634193</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001815538602592204</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002180211611698901</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8846226401598756</v>
       </c>
       <c r="K9">
-        <v>1.195209362538293</v>
+        <v>0.7909417399360166</v>
       </c>
       <c r="L9">
-        <v>0.1778609044287194</v>
+        <v>0.1924252083549192</v>
       </c>
       <c r="M9">
-        <v>0.2915416831896636</v>
+        <v>1.894281307122412</v>
       </c>
       <c r="N9">
-        <v>1.072524233336367</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.921393693672684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.203812474824566</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.690531058155671</v>
+        <v>1.766358724052367</v>
       </c>
       <c r="C10">
-        <v>0.1327154327167008</v>
+        <v>0.5064049407632751</v>
       </c>
       <c r="D10">
-        <v>0.2978251563160086</v>
+        <v>0.7806811525551893</v>
       </c>
       <c r="E10">
-        <v>0.05478244845015467</v>
+        <v>0.3570820287713161</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008070361743449698</v>
+        <v>1.529278661361502</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003857576494437076</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001071084589565174</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9377784467648098</v>
       </c>
       <c r="K10">
-        <v>1.425927072420052</v>
+        <v>0.836393099274332</v>
       </c>
       <c r="L10">
-        <v>0.2044492414451327</v>
+        <v>0.2171762670501778</v>
       </c>
       <c r="M10">
-        <v>0.3441443481979007</v>
+        <v>2.23421054477032</v>
       </c>
       <c r="N10">
-        <v>0.9980110778505775</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.103124960647676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.158214652565711</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.813606078744698</v>
+        <v>1.808439104577786</v>
       </c>
       <c r="C11">
-        <v>0.1363332951509477</v>
+        <v>0.4927297499326357</v>
       </c>
       <c r="D11">
-        <v>0.3203584028659208</v>
+        <v>0.686590392206341</v>
       </c>
       <c r="E11">
-        <v>0.0558639047420435</v>
+        <v>0.2702658813426311</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008038872720043263</v>
+        <v>1.394053064670913</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01896388963014317</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001498630042494398</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8655002081306691</v>
       </c>
       <c r="K11">
-        <v>1.531865570799852</v>
+        <v>0.7621268744786178</v>
       </c>
       <c r="L11">
-        <v>0.2168152596124742</v>
+        <v>0.1335797820406412</v>
       </c>
       <c r="M11">
-        <v>0.3684188906901582</v>
+        <v>2.255451205575156</v>
       </c>
       <c r="N11">
-        <v>0.9658324363368109</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.192439829228533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.053164099083141</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.860449880035645</v>
+        <v>1.791214466574075</v>
       </c>
       <c r="C12">
-        <v>0.1377057397586299</v>
+        <v>0.4626900951593313</v>
       </c>
       <c r="D12">
-        <v>0.3289454355025754</v>
+        <v>0.5928462531630316</v>
       </c>
       <c r="E12">
-        <v>0.05628547663826566</v>
+        <v>0.1993993034434851</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008027055047648111</v>
+        <v>1.263553040523007</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05775630009430444</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001502391167939265</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7984250889003164</v>
       </c>
       <c r="K12">
-        <v>1.572147045789848</v>
+        <v>0.6966813266816274</v>
       </c>
       <c r="L12">
-        <v>0.2215408662320328</v>
+        <v>0.0767432527143157</v>
       </c>
       <c r="M12">
-        <v>0.3776669388329452</v>
+        <v>2.202048114484683</v>
       </c>
       <c r="N12">
-        <v>0.9539062306884958</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.227294924041729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9877054200647848</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.850350165946566</v>
+        <v>1.722491292242893</v>
       </c>
       <c r="C13">
-        <v>0.1374100383140373</v>
+        <v>0.4208632480739425</v>
       </c>
       <c r="D13">
-        <v>0.3270935436344331</v>
+        <v>0.494560070589074</v>
       </c>
       <c r="E13">
-        <v>0.05619413643133697</v>
+        <v>0.1371199881182754</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008029595549897034</v>
+        <v>1.123256514283867</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137861991125817</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001560015201777176</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7284192537176182</v>
       </c>
       <c r="K13">
-        <v>1.563463985268697</v>
+        <v>0.6301192704816643</v>
       </c>
       <c r="L13">
-        <v>0.22052115050856</v>
+        <v>0.03740216888044046</v>
       </c>
       <c r="M13">
-        <v>0.3756726214053288</v>
+        <v>2.086778252141556</v>
       </c>
       <c r="N13">
-        <v>0.9564630237550631</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.219740985118221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9443359161426699</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.817455005358141</v>
+        <v>1.65053269049821</v>
       </c>
       <c r="C14">
-        <v>0.1364461536508514</v>
+        <v>0.387057740094491</v>
       </c>
       <c r="D14">
-        <v>0.3210637375404275</v>
+        <v>0.4251974212955361</v>
       </c>
       <c r="E14">
-        <v>0.0558983421983914</v>
+        <v>0.09934208213754303</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008037898371147409</v>
+        <v>1.021188664394685</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1634506247283412</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001757481674809824</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6782944286758408</v>
       </c>
       <c r="K14">
-        <v>1.535176107465276</v>
+        <v>0.5831092946523171</v>
       </c>
       <c r="L14">
-        <v>0.2172031556133192</v>
+        <v>0.02052752474800101</v>
       </c>
       <c r="M14">
-        <v>0.3691785778962853</v>
+        <v>1.978546737647548</v>
       </c>
       <c r="N14">
-        <v>0.9648459937430047</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.195286198146164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9247600790482231</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.797337647400298</v>
+        <v>1.621059057308031</v>
       </c>
       <c r="C15">
-        <v>0.1358560871047914</v>
+        <v>0.3768693441925848</v>
       </c>
       <c r="D15">
-        <v>0.3173775686961307</v>
+        <v>0.4067643406432637</v>
       </c>
       <c r="E15">
-        <v>0.05571874964796208</v>
+        <v>0.09060577913308165</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00080429977907015</v>
+        <v>0.992645475111587</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.176109946573618</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001963114578385827</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6646804765553469</v>
       </c>
       <c r="K15">
-        <v>1.517871160572554</v>
+        <v>0.5703731586152898</v>
       </c>
       <c r="L15">
-        <v>0.2151764911379388</v>
+        <v>0.01773467095847359</v>
       </c>
       <c r="M15">
-        <v>0.3652082465610391</v>
+        <v>1.938973828316051</v>
       </c>
       <c r="N15">
-        <v>0.9700149293415308</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.180443942530388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9229747875439376</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.682519505215311</v>
+        <v>1.51907550106958</v>
       </c>
       <c r="C16">
-        <v>0.1324792964395556</v>
+        <v>0.3539128154708067</v>
       </c>
       <c r="D16">
-        <v>0.2963597647208047</v>
+        <v>0.3887195868083637</v>
       </c>
       <c r="E16">
-        <v>0.05471342059474793</v>
+        <v>0.08731234331473914</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008072434846723146</v>
+        <v>0.966095892758787</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1641396142214973</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00254817457968759</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6559225754125464</v>
       </c>
       <c r="K16">
-        <v>1.419025498932513</v>
+        <v>0.5638530833288158</v>
       </c>
       <c r="L16">
-        <v>0.203646871656872</v>
+        <v>0.01681254179166292</v>
       </c>
       <c r="M16">
-        <v>0.3425654138992087</v>
+        <v>1.818436318353292</v>
       </c>
       <c r="N16">
-        <v>1.000149610391588</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.097428265083892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9486848665121723</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.6124747925858</v>
+        <v>1.478804752878659</v>
       </c>
       <c r="C17">
-        <v>0.1304112780534652</v>
+        <v>0.3541480226950284</v>
       </c>
       <c r="D17">
-        <v>0.2835552670242123</v>
+        <v>0.410678617763466</v>
       </c>
       <c r="E17">
-        <v>0.05411740092926998</v>
+        <v>0.1034402875032754</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008090689399292348</v>
+        <v>0.998949132599293</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.126788122261317</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002928200395870384</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6754191437301813</v>
       </c>
       <c r="K17">
-        <v>1.358654962734988</v>
+        <v>0.5833233440465477</v>
       </c>
       <c r="L17">
-        <v>0.1966458937409783</v>
+        <v>0.02307757424966184</v>
       </c>
       <c r="M17">
-        <v>0.3287674494587023</v>
+        <v>1.783101186565943</v>
       </c>
       <c r="N17">
-        <v>1.019084575001031</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.048256342060682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9782060341237084</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.572322073887307</v>
+        <v>1.489304223830402</v>
       </c>
       <c r="C18">
-        <v>0.1292228737778132</v>
+        <v>0.3734832226973026</v>
       </c>
       <c r="D18">
-        <v>0.2762211459992727</v>
+        <v>0.4728195765620455</v>
       </c>
       <c r="E18">
-        <v>0.05378198370838838</v>
+        <v>0.1438892028846119</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000810126269870188</v>
+        <v>1.092191594875771</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07392167370852576</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002747893373667765</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7240964459657135</v>
       </c>
       <c r="K18">
-        <v>1.324022529624784</v>
+        <v>0.6307425625116352</v>
       </c>
       <c r="L18">
-        <v>0.1926443595519061</v>
+        <v>0.04553595183096348</v>
       </c>
       <c r="M18">
-        <v>0.3208633348872283</v>
+        <v>1.81761604002557</v>
       </c>
       <c r="N18">
-        <v>1.030136371797198</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.020594350249297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.020393510089562</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558749425594669</v>
+        <v>1.534036776508714</v>
       </c>
       <c r="C19">
-        <v>0.1288206620617842</v>
+        <v>0.4101364336421796</v>
       </c>
       <c r="D19">
-        <v>0.2737430142880299</v>
+        <v>0.5682767289849266</v>
       </c>
       <c r="E19">
-        <v>0.05366966774546711</v>
+        <v>0.2099557756148727</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008104855470288386</v>
+        <v>1.226162318754064</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02813937371619346</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00267076817921108</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7918913275970851</v>
       </c>
       <c r="K19">
-        <v>1.312311545897103</v>
+        <v>0.6957906074572335</v>
       </c>
       <c r="L19">
-        <v>0.1912937295732178</v>
+        <v>0.09353268642882284</v>
       </c>
       <c r="M19">
-        <v>0.3181924723351344</v>
+        <v>1.904358842092876</v>
       </c>
       <c r="N19">
-        <v>1.033905600898066</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.01133274507032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.07446564342191</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.619916983615269</v>
+        <v>1.685168870262999</v>
       </c>
       <c r="C20">
-        <v>0.1306313067654798</v>
+        <v>0.4902614320252212</v>
       </c>
       <c r="D20">
-        <v>0.2849151049775998</v>
+        <v>0.7547761920336882</v>
       </c>
       <c r="E20">
-        <v>0.05418007784241752</v>
+        <v>0.3453231567168302</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008088738576122507</v>
+        <v>1.481826059950066</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005913714084897492</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002040457289718134</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9169475375163927</v>
       </c>
       <c r="K20">
-        <v>1.365071916835831</v>
+        <v>0.8155894235423631</v>
       </c>
       <c r="L20">
-        <v>0.1973885197468093</v>
+        <v>0.2100402550205303</v>
       </c>
       <c r="M20">
-        <v>0.3302329000036224</v>
+        <v>2.140431570636167</v>
       </c>
       <c r="N20">
-        <v>1.017052177510735</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.053426021583903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.16223164881842</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.827110413857696</v>
+        <v>1.907205037067541</v>
       </c>
       <c r="C21">
-        <v>0.1367291975373561</v>
+        <v>0.5591013809036554</v>
       </c>
       <c r="D21">
-        <v>0.3228333119160709</v>
+        <v>0.8538233875080437</v>
       </c>
       <c r="E21">
-        <v>0.05598489150969677</v>
+        <v>0.3984014433984129</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008035456786490035</v>
+        <v>1.619014243427841</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.649118725692404E-06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001667533199931626</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.976882112321988</v>
       </c>
       <c r="K21">
-        <v>1.54348027314947</v>
+        <v>0.8693297962006952</v>
       </c>
       <c r="L21">
-        <v>0.2181765352083715</v>
+        <v>0.2487059558924898</v>
       </c>
       <c r="M21">
-        <v>0.3710844700640905</v>
+        <v>2.426744663807796</v>
       </c>
       <c r="N21">
-        <v>0.9623765777971585</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.202440461992438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.14556714128576</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.963925222743825</v>
+        <v>2.052469004314503</v>
       </c>
       <c r="C22">
-        <v>0.1407291286749981</v>
+        <v>0.5998267836242803</v>
       </c>
       <c r="D22">
-        <v>0.3479342999036135</v>
+        <v>0.9107207723236286</v>
       </c>
       <c r="E22">
-        <v>0.05723501520147956</v>
+        <v>0.4266024483501099</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008001252160225514</v>
+        <v>1.703578851990869</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0002910540885721069</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001573423942196506</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.01358287199244</v>
       </c>
       <c r="K22">
-        <v>1.661053583408034</v>
+        <v>0.902790596509071</v>
       </c>
       <c r="L22">
-        <v>0.2320145745336504</v>
+        <v>0.2678320497282272</v>
       </c>
       <c r="M22">
-        <v>0.3981118008644842</v>
+        <v>2.608745085173467</v>
       </c>
       <c r="N22">
-        <v>0.9281597278368352</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.305894543754846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.132890459211332</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.890766258017493</v>
+        <v>1.978790576443487</v>
       </c>
       <c r="C23">
-        <v>0.1385926916285172</v>
+        <v>0.5762481191177642</v>
       </c>
       <c r="D23">
-        <v>0.3345058948508921</v>
+        <v>0.8803531852947515</v>
       </c>
       <c r="E23">
-        <v>0.05656110624252442</v>
+        <v>0.4115637632196965</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008019453208751251</v>
+        <v>1.663083233289285</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.690205619110714E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001277645565418872</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9963251241890703</v>
       </c>
       <c r="K23">
-        <v>1.598205247573418</v>
+        <v>0.8880697658465309</v>
       </c>
       <c r="L23">
-        <v>0.2246045372863392</v>
+        <v>0.2576331392668436</v>
       </c>
       <c r="M23">
-        <v>0.3836545979848154</v>
+        <v>2.51291762110111</v>
       </c>
       <c r="N23">
-        <v>0.9462788633898924</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.250096901866101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.142391624384125</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.616552007014633</v>
+        <v>1.694203642274886</v>
       </c>
       <c r="C24">
-        <v>0.1305318301981231</v>
+        <v>0.4911912004141641</v>
       </c>
       <c r="D24">
-        <v>0.2843002375304593</v>
+        <v>0.7661568364553659</v>
       </c>
       <c r="E24">
-        <v>0.05415171910233774</v>
+        <v>0.3549252048522504</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008089620298250497</v>
+        <v>1.504343583536496</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004262018727145822</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00152255849582339</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9283282682459628</v>
       </c>
       <c r="K24">
-        <v>1.362170578803159</v>
+        <v>0.8280603342889918</v>
       </c>
       <c r="L24">
-        <v>0.1970527058701919</v>
+        <v>0.2193688807199692</v>
       </c>
       <c r="M24">
-        <v>0.3295702814413559</v>
+        <v>2.149842828987403</v>
       </c>
       <c r="N24">
-        <v>1.017970508788984</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.051086922758259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.174965404597565</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.32583508603409</v>
+        <v>1.388571840607511</v>
       </c>
       <c r="C25">
-        <v>0.121875151010677</v>
+        <v>0.4017958763482454</v>
       </c>
       <c r="D25">
-        <v>0.2312953730556728</v>
+        <v>0.6445151346956948</v>
       </c>
       <c r="E25">
-        <v>0.051833240654517</v>
+        <v>0.2944360922208062</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008168146901250444</v>
+        <v>1.337553206621777</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002938625143501739</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003513296306715041</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.8573826656605235</v>
       </c>
       <c r="K25">
-        <v>1.110971195498564</v>
+        <v>0.7651194316082766</v>
       </c>
       <c r="L25">
-        <v>0.1682850562004887</v>
+        <v>0.1787979078392254</v>
       </c>
       <c r="M25">
-        <v>0.2724378620689869</v>
+        <v>1.761917981657518</v>
       </c>
       <c r="N25">
-        <v>1.101411916524601</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.859872843684371</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.212307132849226</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.173295406862366</v>
+        <v>1.064932202725856</v>
       </c>
       <c r="C2">
-        <v>0.3333364803263805</v>
+        <v>0.3885428384734837</v>
       </c>
       <c r="D2">
-        <v>0.5560191048708418</v>
+        <v>0.5590197586873273</v>
       </c>
       <c r="E2">
-        <v>0.2503049528380359</v>
+        <v>0.2524202563917655</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.229250371009016</v>
+        <v>1.057501742393342</v>
       </c>
       <c r="H2">
-        <v>0.006380724082317712</v>
+        <v>0.005438209951658668</v>
       </c>
       <c r="I2">
-        <v>0.005480518870245366</v>
+        <v>0.003780982838813784</v>
       </c>
       <c r="J2">
-        <v>0.8126581438062033</v>
+        <v>0.7427632221240259</v>
       </c>
       <c r="K2">
-        <v>0.7277314721008139</v>
+        <v>0.6087124153987844</v>
       </c>
       <c r="L2">
-        <v>0.1494165370208975</v>
+        <v>0.2684437360801155</v>
       </c>
       <c r="M2">
-        <v>1.481790652912707</v>
+        <v>0.1918556277589865</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1511789157203651</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.445801718127285</v>
       </c>
       <c r="P2">
-        <v>1.248581516155106</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.12339720737377</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.022138144976509</v>
+        <v>0.9314997518070243</v>
       </c>
       <c r="C3">
-        <v>0.2901954058648073</v>
+        <v>0.3369871809855738</v>
       </c>
       <c r="D3">
-        <v>0.4964313535101326</v>
+        <v>0.4998883559854903</v>
       </c>
       <c r="E3">
-        <v>0.2204832468413045</v>
+        <v>0.2228960980652701</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.150728400836698</v>
+        <v>1.001021727151766</v>
       </c>
       <c r="H3">
-        <v>0.009633826571109436</v>
+        <v>0.008256169460705759</v>
       </c>
       <c r="I3">
-        <v>0.007929037094394964</v>
+        <v>0.005485540850674209</v>
       </c>
       <c r="J3">
-        <v>0.7798910134372079</v>
+        <v>0.7133245051664829</v>
       </c>
       <c r="K3">
-        <v>0.6985532726030286</v>
+        <v>0.5909227462115823</v>
       </c>
       <c r="L3">
-        <v>0.1296606021934039</v>
+        <v>0.2679824806648021</v>
       </c>
       <c r="M3">
-        <v>1.29095054615405</v>
+        <v>0.1803281103914998</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1315978402721285</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.261170479040004</v>
       </c>
       <c r="P3">
-        <v>1.27004310044736</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.151614821678692</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9291352470118284</v>
+        <v>0.8491041003465796</v>
       </c>
       <c r="C4">
-        <v>0.2641146474124412</v>
+        <v>0.3058598181082459</v>
       </c>
       <c r="D4">
-        <v>0.4600124426132766</v>
+        <v>0.463741616750923</v>
       </c>
       <c r="E4">
-        <v>0.2022085251910184</v>
+        <v>0.2047925882222259</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.102949259586367</v>
+        <v>0.9667305821169805</v>
       </c>
       <c r="H4">
-        <v>0.01204843094927174</v>
+        <v>0.01035376594276476</v>
       </c>
       <c r="I4">
-        <v>0.009765391525630385</v>
+        <v>0.006793431794302585</v>
       </c>
       <c r="J4">
-        <v>0.7600595322546013</v>
+        <v>0.695166589026428</v>
       </c>
       <c r="K4">
-        <v>0.6807637163158304</v>
+        <v>0.5799774348561826</v>
       </c>
       <c r="L4">
-        <v>0.1175996938649035</v>
+        <v>0.2675162315050628</v>
       </c>
       <c r="M4">
-        <v>1.174042723771066</v>
+        <v>0.1739402976751165</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1196205879648247</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.147872921888649</v>
       </c>
       <c r="P4">
-        <v>1.283509019485706</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.169225912527196</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8902409911568725</v>
+        <v>0.8145426472203496</v>
       </c>
       <c r="C5">
-        <v>0.2540142552399516</v>
+        <v>0.2937461945719519</v>
       </c>
       <c r="D5">
-        <v>0.4451967542317448</v>
+        <v>0.4490363099469619</v>
       </c>
       <c r="E5">
-        <v>0.1947599181619211</v>
+        <v>0.1974117762064438</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.082379814587483</v>
+        <v>0.9517838775340124</v>
       </c>
       <c r="H5">
-        <v>0.01313804306987038</v>
+        <v>0.01130151346545513</v>
       </c>
       <c r="I5">
-        <v>0.01068024157558023</v>
+        <v>0.007486091721913724</v>
       </c>
       <c r="J5">
-        <v>0.7514371223663971</v>
+        <v>0.6871827935596428</v>
       </c>
       <c r="K5">
-        <v>0.6727346081074117</v>
+        <v>0.5748130146730119</v>
       </c>
       <c r="L5">
-        <v>0.1126935174967016</v>
+        <v>0.2669683823412328</v>
       </c>
       <c r="M5">
-        <v>1.126118404993036</v>
+        <v>0.171298083067505</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1147432708201279</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.101389707181767</v>
       </c>
       <c r="P5">
-        <v>1.288292464737765</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.175865463032434</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8826309249234328</v>
+        <v>0.8077414491021102</v>
       </c>
       <c r="C6">
-        <v>0.2528746806696063</v>
+        <v>0.2922908356114533</v>
       </c>
       <c r="D6">
-        <v>0.4427259614271861</v>
+        <v>0.4465847769374136</v>
       </c>
       <c r="E6">
-        <v>0.1935146849092249</v>
+        <v>0.1961782123540914</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.077508429674879</v>
+        <v>0.9480133855805803</v>
       </c>
       <c r="H6">
-        <v>0.01333132515449126</v>
+        <v>0.01146953862109358</v>
       </c>
       <c r="I6">
-        <v>0.01094998910417999</v>
+        <v>0.007731993385218239</v>
       </c>
       <c r="J6">
-        <v>0.7492665185206704</v>
+        <v>0.6851694917252473</v>
       </c>
       <c r="K6">
-        <v>0.6704167737138533</v>
+        <v>0.5731051400564766</v>
       </c>
       <c r="L6">
-        <v>0.111873066385499</v>
+        <v>0.2664947542331682</v>
       </c>
       <c r="M6">
-        <v>1.11775456633714</v>
+        <v>0.17061166083408</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1139275198375671</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.093283094996167</v>
       </c>
       <c r="P6">
-        <v>1.288148228035794</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.176234365643168</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9254632798708258</v>
+        <v>0.8449960339401912</v>
       </c>
       <c r="C7">
-        <v>0.2654339799838397</v>
+        <v>0.3063424715043652</v>
       </c>
       <c r="D7">
-        <v>0.4597780988776208</v>
+        <v>0.4634882515135814</v>
       </c>
       <c r="E7">
-        <v>0.2020844063591412</v>
+        <v>0.2046546987137106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.098677357047791</v>
+        <v>0.9666438490867648</v>
       </c>
       <c r="H7">
-        <v>0.01207906185602012</v>
+        <v>0.01039008817338344</v>
       </c>
       <c r="I7">
-        <v>0.01006840612527071</v>
+        <v>0.007139369656516514</v>
       </c>
       <c r="J7">
-        <v>0.7579147536601738</v>
+        <v>0.685728912563718</v>
       </c>
       <c r="K7">
-        <v>0.677960743731731</v>
+        <v>0.5765310903801506</v>
       </c>
       <c r="L7">
-        <v>0.1175152510046473</v>
+        <v>0.2660263370527396</v>
       </c>
       <c r="M7">
-        <v>1.1722750236313</v>
+        <v>0.1728516141342773</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1195243867007463</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.144507777928823</v>
       </c>
       <c r="P7">
-        <v>1.28101262078637</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.166287698246752</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.116996755999736</v>
+        <v>1.012638966647529</v>
       </c>
       <c r="C8">
-        <v>0.3203112578587763</v>
+        <v>0.3697757487305182</v>
       </c>
       <c r="D8">
-        <v>0.5353888678312728</v>
+        <v>0.538478007661837</v>
       </c>
       <c r="E8">
-        <v>0.2399811533320388</v>
+        <v>0.2421512113605502</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.196784185969065</v>
+        <v>1.04550560938543</v>
       </c>
       <c r="H8">
-        <v>0.007429307529433715</v>
+        <v>0.006369407525273485</v>
       </c>
       <c r="I8">
-        <v>0.006597406790175953</v>
+        <v>0.004727060444737141</v>
       </c>
       <c r="J8">
-        <v>0.7986158563789445</v>
+        <v>0.7056397911125316</v>
       </c>
       <c r="K8">
-        <v>0.714076009146666</v>
+        <v>0.5960587631487471</v>
       </c>
       <c r="L8">
-        <v>0.1425624538270824</v>
+        <v>0.265623381114068</v>
       </c>
       <c r="M8">
-        <v>1.41441569820455</v>
+        <v>0.1855362717069724</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1443479083513211</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.375073163250164</v>
       </c>
       <c r="P8">
-        <v>1.252598248005988</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.127259268890544</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.497213613026901</v>
+        <v>1.345879989903409</v>
       </c>
       <c r="C9">
-        <v>0.4289684804018918</v>
+        <v>0.4991935810818404</v>
       </c>
       <c r="D9">
-        <v>0.6853794721611735</v>
+        <v>0.6872311016990125</v>
       </c>
       <c r="E9">
-        <v>0.3147922947554562</v>
+        <v>0.3161179307424788</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.400410863634193</v>
+        <v>1.196809766231297</v>
       </c>
       <c r="H9">
-        <v>0.001815538602592204</v>
+        <v>0.00152593167923154</v>
       </c>
       <c r="I9">
-        <v>0.002180211611698901</v>
+        <v>0.001673164399499605</v>
       </c>
       <c r="J9">
-        <v>0.8846226401598756</v>
+        <v>0.774099051069058</v>
       </c>
       <c r="K9">
-        <v>0.7909417399360166</v>
+        <v>0.6422561197075822</v>
       </c>
       <c r="L9">
-        <v>0.1924252083549192</v>
+        <v>0.2667593765553811</v>
       </c>
       <c r="M9">
-        <v>1.894281307122412</v>
+        <v>0.2185879567497047</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1936001181424842</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.836409164029931</v>
       </c>
       <c r="P9">
-        <v>1.203812474824566</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.060261499177216</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.766358724052367</v>
+        <v>1.57654166358887</v>
       </c>
       <c r="C10">
-        <v>0.5064049407632751</v>
+        <v>0.5859639267164312</v>
       </c>
       <c r="D10">
-        <v>0.7806811525551893</v>
+        <v>0.7814175826429448</v>
       </c>
       <c r="E10">
-        <v>0.3570820287713161</v>
+        <v>0.3576123145748227</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.529278661361502</v>
+        <v>1.313068550414584</v>
       </c>
       <c r="H10">
-        <v>0.0003857576494437076</v>
+        <v>0.0003495657088792292</v>
       </c>
       <c r="I10">
-        <v>0.001071084589565174</v>
+        <v>0.001138960795144861</v>
       </c>
       <c r="J10">
-        <v>0.9377784467648098</v>
+        <v>0.7726514352323619</v>
       </c>
       <c r="K10">
-        <v>0.836393099274332</v>
+        <v>0.661270616395889</v>
       </c>
       <c r="L10">
-        <v>0.2171762670501778</v>
+        <v>0.2613256988635158</v>
       </c>
       <c r="M10">
-        <v>2.23421054477032</v>
+        <v>0.2404526723469331</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2176640769046401</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.152138601048364</v>
       </c>
       <c r="P10">
-        <v>1.158214652565711</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.000365445937284</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.808439104577786</v>
+        <v>1.612129383016736</v>
       </c>
       <c r="C11">
-        <v>0.4927297499326357</v>
+        <v>0.5568065472399155</v>
       </c>
       <c r="D11">
-        <v>0.686590392206341</v>
+        <v>0.6868803840325199</v>
       </c>
       <c r="E11">
-        <v>0.2702658813426311</v>
+        <v>0.2704700298884646</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.394053064670913</v>
+        <v>1.240898128036207</v>
       </c>
       <c r="H11">
-        <v>0.01896388963014317</v>
+        <v>0.01894744435517381</v>
       </c>
       <c r="I11">
-        <v>0.001498630042494398</v>
+        <v>0.001745547727146857</v>
       </c>
       <c r="J11">
-        <v>0.8655002081306691</v>
+        <v>0.6346594461313089</v>
       </c>
       <c r="K11">
-        <v>0.7621268744786178</v>
+        <v>0.5898733426584499</v>
       </c>
       <c r="L11">
-        <v>0.1335797820406412</v>
+        <v>0.230720341468647</v>
       </c>
       <c r="M11">
-        <v>2.255451205575156</v>
+        <v>0.2186938057669821</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.133766734760691</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.152971374391683</v>
       </c>
       <c r="P11">
-        <v>1.053164099083141</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9173050513242593</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.791214466574075</v>
+        <v>1.600230786118459</v>
       </c>
       <c r="C12">
-        <v>0.4626900951593313</v>
+        <v>0.5153899806164191</v>
       </c>
       <c r="D12">
-        <v>0.5928462531630316</v>
+        <v>0.5930721978690485</v>
       </c>
       <c r="E12">
-        <v>0.1993993034434851</v>
+        <v>0.1995553287708987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.263553040523007</v>
+        <v>1.148630853073357</v>
       </c>
       <c r="H12">
-        <v>0.05775630009430444</v>
+        <v>0.05773866469108668</v>
       </c>
       <c r="I12">
-        <v>0.001502391167939265</v>
+        <v>0.001748256288061967</v>
       </c>
       <c r="J12">
-        <v>0.7984250889003164</v>
+        <v>0.5543880621925439</v>
       </c>
       <c r="K12">
-        <v>0.6966813266816274</v>
+        <v>0.5355958791073405</v>
       </c>
       <c r="L12">
-        <v>0.0767432527143157</v>
+        <v>0.210101978437585</v>
       </c>
       <c r="M12">
-        <v>2.202048114484683</v>
+        <v>0.1990049670228338</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07688518088488649</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.094054289687136</v>
       </c>
       <c r="P12">
-        <v>0.9877054200647848</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8756689628385175</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.722491292242893</v>
+        <v>1.548621209006825</v>
       </c>
       <c r="C13">
-        <v>0.4208632480739425</v>
+        <v>0.4665310107280902</v>
       </c>
       <c r="D13">
-        <v>0.494560070589074</v>
+        <v>0.4949827284208936</v>
       </c>
       <c r="E13">
-        <v>0.1371199881182754</v>
+        <v>0.1374064912933299</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.123256514283867</v>
+        <v>1.023244316397893</v>
       </c>
       <c r="H13">
-        <v>0.1137861991125817</v>
+        <v>0.1137367709088721</v>
       </c>
       <c r="I13">
-        <v>0.001560015201777176</v>
+        <v>0.001741317828805045</v>
       </c>
       <c r="J13">
-        <v>0.7284192537176182</v>
+        <v>0.5150793919608674</v>
       </c>
       <c r="K13">
-        <v>0.6301192704816643</v>
+        <v>0.488985404571082</v>
       </c>
       <c r="L13">
-        <v>0.03740216888044046</v>
+        <v>0.1943861540972485</v>
       </c>
       <c r="M13">
-        <v>2.086778252141556</v>
+        <v>0.1794340666718313</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03765994796805927</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.988523572066043</v>
       </c>
       <c r="P13">
-        <v>0.9443359161426699</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8580744076576554</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.65053269049821</v>
+        <v>1.493731791282272</v>
       </c>
       <c r="C14">
-        <v>0.387057740094491</v>
+        <v>0.429473811149677</v>
       </c>
       <c r="D14">
-        <v>0.4251974212955361</v>
+        <v>0.4258374718914979</v>
       </c>
       <c r="E14">
-        <v>0.09934208213754303</v>
+        <v>0.09977045269148022</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.021188664394685</v>
+        <v>0.9230966769831213</v>
       </c>
       <c r="H14">
-        <v>0.1634506247283412</v>
+        <v>0.1633516905092023</v>
       </c>
       <c r="I14">
-        <v>0.001757481674809824</v>
+        <v>0.001863324766089747</v>
       </c>
       <c r="J14">
-        <v>0.6782944286758408</v>
+        <v>0.5019945945068258</v>
       </c>
       <c r="K14">
-        <v>0.5831092946523171</v>
+        <v>0.459103024773718</v>
       </c>
       <c r="L14">
-        <v>0.02052752474800101</v>
+        <v>0.185105837090962</v>
       </c>
       <c r="M14">
-        <v>1.978546737647548</v>
+        <v>0.1657577404341346</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02090901082704733</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.89340992068864</v>
       </c>
       <c r="P14">
-        <v>0.9247600790482231</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8557609101177523</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.621059057308031</v>
+        <v>1.470752349397628</v>
       </c>
       <c r="C15">
-        <v>0.3768693441925848</v>
+        <v>0.4191083567193346</v>
       </c>
       <c r="D15">
-        <v>0.4067643406432637</v>
+        <v>0.4075013548100799</v>
       </c>
       <c r="E15">
-        <v>0.09060577913308165</v>
+        <v>0.09109744823970445</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.992645475111587</v>
+        <v>0.8919593475134491</v>
       </c>
       <c r="H15">
-        <v>0.176109946573618</v>
+        <v>0.1759848271196915</v>
       </c>
       <c r="I15">
-        <v>0.001963114578385827</v>
+        <v>0.002049388161463384</v>
       </c>
       <c r="J15">
-        <v>0.6646804765553469</v>
+        <v>0.504209695598135</v>
       </c>
       <c r="K15">
-        <v>0.5703731586152898</v>
+        <v>0.4521271170624317</v>
       </c>
       <c r="L15">
-        <v>0.01773467095847359</v>
+        <v>0.1832803783389458</v>
       </c>
       <c r="M15">
-        <v>1.938973828316051</v>
+        <v>0.1620719264783119</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.01817044665597134</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.85975974614388</v>
       </c>
       <c r="P15">
-        <v>0.9229747875439376</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8582331748010366</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.51907550106958</v>
+        <v>1.388463498658638</v>
       </c>
       <c r="C16">
-        <v>0.3539128154708067</v>
+        <v>0.4007224188883356</v>
       </c>
       <c r="D16">
-        <v>0.3887195868083637</v>
+        <v>0.3899022948765491</v>
       </c>
       <c r="E16">
-        <v>0.08731234331473914</v>
+        <v>0.08810015447966535</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.966095892758787</v>
+        <v>0.8404174859872597</v>
       </c>
       <c r="H16">
-        <v>0.1641396142214973</v>
+        <v>0.1638719165243572</v>
       </c>
       <c r="I16">
-        <v>0.00254817457968759</v>
+        <v>0.002429071594933774</v>
       </c>
       <c r="J16">
-        <v>0.6559225754125464</v>
+        <v>0.5552813621329733</v>
       </c>
       <c r="K16">
-        <v>0.5638530833288158</v>
+        <v>0.458875905069501</v>
       </c>
       <c r="L16">
-        <v>0.01681254179166292</v>
+        <v>0.1889773050268424</v>
       </c>
       <c r="M16">
-        <v>1.818436318353292</v>
+        <v>0.1601457876015502</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.01749443794697392</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.762112645442272</v>
       </c>
       <c r="P16">
-        <v>0.9486848665121723</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8846449099767769</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.478804752878659</v>
+        <v>1.353129709040815</v>
       </c>
       <c r="C17">
-        <v>0.3541480226950284</v>
+        <v>0.4051921025351817</v>
       </c>
       <c r="D17">
-        <v>0.410678617763466</v>
+        <v>0.4121073828611088</v>
       </c>
       <c r="E17">
-        <v>0.1034402875032754</v>
+        <v>0.1043977632521553</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.998949132599293</v>
+        <v>0.8565185829623658</v>
       </c>
       <c r="H17">
-        <v>0.126788122261317</v>
+        <v>0.1264379548423875</v>
       </c>
       <c r="I17">
-        <v>0.002928200395870384</v>
+        <v>0.002692452942406831</v>
       </c>
       <c r="J17">
-        <v>0.6754191437301813</v>
+        <v>0.5975931231218539</v>
       </c>
       <c r="K17">
-        <v>0.5833233440465477</v>
+        <v>0.479039838486095</v>
       </c>
       <c r="L17">
-        <v>0.02307757424966184</v>
+        <v>0.1983602204233641</v>
       </c>
       <c r="M17">
-        <v>1.783101186565943</v>
+        <v>0.1652781285231306</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.02389750103647437</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.735048564598941</v>
       </c>
       <c r="P17">
-        <v>0.9782060341237084</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9072115099200042</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.489304223830402</v>
+        <v>1.358141848730753</v>
       </c>
       <c r="C18">
-        <v>0.3734832226973026</v>
+        <v>0.4308489221220384</v>
       </c>
       <c r="D18">
-        <v>0.4728195765620455</v>
+        <v>0.4743766898740489</v>
       </c>
       <c r="E18">
-        <v>0.1438892028846119</v>
+        <v>0.1449482844734682</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.092191594875771</v>
+        <v>0.9293510159492797</v>
       </c>
       <c r="H18">
-        <v>0.07392167370852576</v>
+        <v>0.07356698654312055</v>
       </c>
       <c r="I18">
-        <v>0.002747893373667765</v>
+        <v>0.002448637150632038</v>
       </c>
       <c r="J18">
-        <v>0.7240964459657135</v>
+        <v>0.6501214394349262</v>
       </c>
       <c r="K18">
-        <v>0.6307425625116352</v>
+        <v>0.5176626214069273</v>
       </c>
       <c r="L18">
-        <v>0.04553595183096348</v>
+        <v>0.2138149853988836</v>
       </c>
       <c r="M18">
-        <v>1.81761604002557</v>
+        <v>0.1785719940428976</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04644665552211791</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.770104109021048</v>
       </c>
       <c r="P18">
-        <v>1.020393510089562</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.93434656995165</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.534036776508714</v>
+        <v>1.390537008080798</v>
       </c>
       <c r="C19">
-        <v>0.4101364336421796</v>
+        <v>0.4760666051046485</v>
       </c>
       <c r="D19">
-        <v>0.5682767289849266</v>
+        <v>0.5698444437457511</v>
       </c>
       <c r="E19">
-        <v>0.2099557756148727</v>
+        <v>0.2110448858614475</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.226162318754064</v>
+        <v>1.038455324490585</v>
       </c>
       <c r="H19">
-        <v>0.02813937371619346</v>
+        <v>0.02785371659793867</v>
       </c>
       <c r="I19">
-        <v>0.00267076817921108</v>
+        <v>0.002471242010372521</v>
       </c>
       <c r="J19">
-        <v>0.7918913275970851</v>
+        <v>0.7106236830146599</v>
       </c>
       <c r="K19">
-        <v>0.6957906074572335</v>
+        <v>0.5675681414552969</v>
       </c>
       <c r="L19">
-        <v>0.09353268642882284</v>
+        <v>0.2327380923138378</v>
       </c>
       <c r="M19">
-        <v>1.904358842092876</v>
+        <v>0.1971416809635294</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09448542825638384</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.852679507839667</v>
       </c>
       <c r="P19">
-        <v>1.07446564342191</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9673945501344967</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.685168870262999</v>
+        <v>1.509437413700766</v>
       </c>
       <c r="C20">
-        <v>0.4902614320252212</v>
+        <v>0.5706870152475574</v>
       </c>
       <c r="D20">
-        <v>0.7547761920336882</v>
+        <v>0.7559027730684704</v>
       </c>
       <c r="E20">
-        <v>0.3453231567168302</v>
+        <v>0.3461331036963529</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.481826059950066</v>
+        <v>1.25710048774647</v>
       </c>
       <c r="H20">
-        <v>0.0005913714084897492</v>
+        <v>0.0005048034069639051</v>
       </c>
       <c r="I20">
-        <v>0.002040457289718134</v>
+        <v>0.002139211383537898</v>
       </c>
       <c r="J20">
-        <v>0.9169475375163927</v>
+        <v>0.7927698219602632</v>
       </c>
       <c r="K20">
-        <v>0.8155894235423631</v>
+        <v>0.6526720264437174</v>
       </c>
       <c r="L20">
-        <v>0.2100402550205303</v>
+        <v>0.2614499294325228</v>
       </c>
       <c r="M20">
-        <v>2.140431570636167</v>
+        <v>0.2331293858245971</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2107783296478374</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.071323656083877</v>
       </c>
       <c r="P20">
-        <v>1.16223164881842</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.013564844880896</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.907205037067541</v>
+        <v>1.682919668745939</v>
       </c>
       <c r="C21">
-        <v>0.5591013809036554</v>
+        <v>0.6316261043159273</v>
       </c>
       <c r="D21">
-        <v>0.8538233875080437</v>
+        <v>0.8536023254891347</v>
       </c>
       <c r="E21">
-        <v>0.3984014433984129</v>
+        <v>0.3982413884338811</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.619014243427841</v>
+        <v>1.452295518068638</v>
       </c>
       <c r="H21">
-        <v>5.649118725692404E-06</v>
+        <v>3.946877146887573E-06</v>
       </c>
       <c r="I21">
-        <v>0.001667533199931626</v>
+        <v>0.002025321923023959</v>
       </c>
       <c r="J21">
-        <v>0.976882112321988</v>
+        <v>0.6796120637437468</v>
       </c>
       <c r="K21">
-        <v>0.8693297962006952</v>
+        <v>0.6620649115033501</v>
       </c>
       <c r="L21">
-        <v>0.2487059558924898</v>
+        <v>0.2555546613032078</v>
       </c>
       <c r="M21">
-        <v>2.426744663807796</v>
+        <v>0.2485613438560677</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2485559437092917</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.303814136169848</v>
       </c>
       <c r="P21">
-        <v>1.14556714128576</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9636889557187658</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.052469004314503</v>
+        <v>1.795157454359384</v>
       </c>
       <c r="C22">
-        <v>0.5998267836242803</v>
+        <v>0.6649285252354957</v>
       </c>
       <c r="D22">
-        <v>0.9107207723236286</v>
+        <v>0.9095731588911349</v>
       </c>
       <c r="E22">
-        <v>0.4266024483501099</v>
+        <v>0.4257695473593941</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.703578851990869</v>
+        <v>1.586163061046392</v>
       </c>
       <c r="H22">
-        <v>0.0002910540885721069</v>
+        <v>0.0002276650764345689</v>
       </c>
       <c r="I22">
-        <v>0.001573423942196506</v>
+        <v>0.001883582532760997</v>
       </c>
       <c r="J22">
-        <v>1.01358287199244</v>
+        <v>0.603264262846082</v>
       </c>
       <c r="K22">
-        <v>0.902790596509071</v>
+        <v>0.6654200591069639</v>
       </c>
       <c r="L22">
-        <v>0.2678320497282272</v>
+        <v>0.2507883247884024</v>
       </c>
       <c r="M22">
-        <v>2.608745085173467</v>
+        <v>0.2579285297880531</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2670396847180143</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.447294170272414</v>
       </c>
       <c r="P22">
-        <v>1.132890459211332</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9295785843201472</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.978790576443487</v>
+        <v>1.740871580000743</v>
       </c>
       <c r="C23">
-        <v>0.5762481191177642</v>
+        <v>0.6476871358773053</v>
       </c>
       <c r="D23">
-        <v>0.8803531852947515</v>
+        <v>0.879749354767938</v>
       </c>
       <c r="E23">
-        <v>0.4115637632196965</v>
+        <v>0.4111259839550669</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.663083233289285</v>
+        <v>1.507771514269052</v>
       </c>
       <c r="H23">
-        <v>8.690205619110714E-05</v>
+        <v>6.839182805729038E-05</v>
       </c>
       <c r="I23">
-        <v>0.001277645565418872</v>
+        <v>0.001566117499633535</v>
       </c>
       <c r="J23">
-        <v>0.9963251241890703</v>
+        <v>0.6607936496239262</v>
       </c>
       <c r="K23">
-        <v>0.8880697658465309</v>
+        <v>0.6688427862701758</v>
       </c>
       <c r="L23">
-        <v>0.2576331392668436</v>
+        <v>0.2551146557789572</v>
       </c>
       <c r="M23">
-        <v>2.51291762110111</v>
+        <v>0.2550265487884076</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2572198046481731</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.376681348969271</v>
       </c>
       <c r="P23">
-        <v>1.142391624384125</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9516036752533665</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.694203642274886</v>
+        <v>1.516871868882362</v>
       </c>
       <c r="C24">
-        <v>0.4911912004141641</v>
+        <v>0.5725196821134659</v>
       </c>
       <c r="D24">
-        <v>0.7661568364553659</v>
+        <v>0.7672751839444629</v>
       </c>
       <c r="E24">
-        <v>0.3549252048522504</v>
+        <v>0.3557311569045822</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.504343583536496</v>
+        <v>1.275433835781968</v>
       </c>
       <c r="H24">
-        <v>0.0004262018727145822</v>
+        <v>0.0003454678552032853</v>
       </c>
       <c r="I24">
-        <v>0.00152255849582339</v>
+        <v>0.001528965136110116</v>
       </c>
       <c r="J24">
-        <v>0.9283282682459628</v>
+        <v>0.8037787379193873</v>
       </c>
       <c r="K24">
-        <v>0.8280603342889918</v>
+        <v>0.6627160256318447</v>
       </c>
       <c r="L24">
-        <v>0.2193688807199692</v>
+        <v>0.2652692614513299</v>
       </c>
       <c r="M24">
-        <v>2.149842828987403</v>
+        <v>0.2368474632492124</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2201047680061663</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.080446075668192</v>
       </c>
       <c r="P24">
-        <v>1.174965404597565</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.022412898011758</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.388571840607511</v>
+        <v>1.251856094940706</v>
       </c>
       <c r="C25">
-        <v>0.4017958763482454</v>
+        <v>0.4676626928568908</v>
       </c>
       <c r="D25">
-        <v>0.6445151346956948</v>
+        <v>0.6467546557546484</v>
       </c>
       <c r="E25">
-        <v>0.2944360922208062</v>
+        <v>0.2960324561267385</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.337553206621777</v>
+        <v>1.143746273596619</v>
       </c>
       <c r="H25">
-        <v>0.002938625143501739</v>
+        <v>0.002483112514834795</v>
       </c>
       <c r="I25">
-        <v>0.003513296306715041</v>
+        <v>0.002781582872424693</v>
       </c>
       <c r="J25">
-        <v>0.8573826656605235</v>
+        <v>0.7628252480078714</v>
       </c>
       <c r="K25">
-        <v>0.7651194316082766</v>
+        <v>0.6271465572262045</v>
       </c>
       <c r="L25">
-        <v>0.1787979078392254</v>
+        <v>0.2656052868047105</v>
       </c>
       <c r="M25">
-        <v>1.761917981657518</v>
+        <v>0.2080817584096977</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1801880017133612</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.71184358735465</v>
       </c>
       <c r="P25">
-        <v>1.212307132849226</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.076229500751253</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
